--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_d2.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_d2.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahaines\Desktop\Method Comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/400_data_analytics/shellbase_bal/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465D145-58E9-1941-B628-D449A6952A44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="75" windowWidth="14730" windowHeight="15285" activeTab="1"/>
+    <workbookView xWindow="7860" yWindow="500" windowWidth="14740" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN '93 - JUN '05" sheetId="1" r:id="rId1"/>
     <sheet name="MAY  '05 ----&gt;" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="\E">'JAN ''93 - JUN ''05'!$E$597</definedName>
-    <definedName name="\G">'JAN ''93 - JUN ''05'!$A$597</definedName>
     <definedName name="_Dist_Bin" hidden="1">'JAN ''93 - JUN ''05'!$H$26:$H$27</definedName>
     <definedName name="_Dist_Values" hidden="1">'JAN ''93 - JUN ''05'!$F$2:$F$21</definedName>
     <definedName name="_Fill" hidden="1">'JAN ''93 - JUN ''05'!$T$2:$T$12</definedName>
@@ -28,6 +25,8 @@
     <definedName name="_Order1" hidden="1">0</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
     <definedName name="_Sort" hidden="1">'JAN ''93 - JUN ''05'!$A$2:$G$1805</definedName>
+    <definedName name="\E">'JAN ''93 - JUN ''05'!$E$597</definedName>
+    <definedName name="\G">'JAN ''93 - JUN ''05'!$A$597</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'JAN ''93 - JUN ''05'!$C$1:$IT$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'MAY  ''05 ----&gt;'!$BJ$1:$CA$25</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'JAN ''93 - JUN ''05'!$A:$B</definedName>
@@ -255,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -490,6 +489,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -525,6 +541,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -700,16 +733,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1" transitionEntry="1" codeName="Sheet1"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="22" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane xSplit="2" topLeftCell="IJ1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="IV1" sqref="IV1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="12" customWidth="1"/>
     <col min="2" max="2" width="4" style="13" customWidth="1"/>
@@ -734,7 +767,7 @@
     <col min="228" max="16384" width="8" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1713,7 @@
         <v>38508</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>19</v>
       </c>
@@ -2269,7 +2302,7 @@
       <c r="IU2" s="10"/>
       <c r="IV2" s="10"/>
     </row>
-    <row r="3" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>25</v>
       </c>
@@ -2895,7 +2928,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>20</v>
       </c>
@@ -3307,7 +3340,7 @@
       <c r="IU4" s="10"/>
       <c r="IV4" s="10"/>
     </row>
-    <row r="5" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>16</v>
       </c>
@@ -4037,7 +4070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>9</v>
       </c>
@@ -4382,7 +4415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>11</v>
       </c>
@@ -4707,7 +4740,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -5040,7 +5073,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>17</v>
       </c>
@@ -5598,7 +5631,7 @@
       <c r="IU9" s="10"/>
       <c r="IV9" s="10"/>
     </row>
-    <row r="10" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>21</v>
       </c>
@@ -5860,7 +5893,7 @@
       <c r="IU10" s="3"/>
       <c r="IV10" s="10"/>
     </row>
-    <row r="11" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>22</v>
       </c>
@@ -6121,7 +6154,7 @@
       <c r="IU11" s="10"/>
       <c r="IV11" s="10"/>
     </row>
-    <row r="12" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -6380,7 +6413,7 @@
       <c r="IU12" s="10"/>
       <c r="IV12" s="10"/>
     </row>
-    <row r="13" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>24</v>
       </c>
@@ -6580,7 +6613,7 @@
       <c r="IU13" s="10"/>
       <c r="IV13" s="10"/>
     </row>
-    <row r="14" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -6835,7 +6868,7 @@
       <c r="IU14" s="10"/>
       <c r="IV14" s="10"/>
     </row>
-    <row r="15" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>18</v>
       </c>
@@ -7068,7 +7101,7 @@
       <c r="IU15" s="10"/>
       <c r="IV15" s="10"/>
     </row>
-    <row r="16" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>30</v>
       </c>
@@ -7266,7 +7299,7 @@
       <c r="IU16" s="10"/>
       <c r="IV16" s="10"/>
     </row>
-    <row r="17" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>30</v>
       </c>
@@ -7464,7 +7497,7 @@
       <c r="IU17" s="10"/>
       <c r="IV17" s="10"/>
     </row>
-    <row r="18" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>30</v>
       </c>
@@ -7662,7 +7695,7 @@
       <c r="IU18" s="10"/>
       <c r="IV18" s="10"/>
     </row>
-    <row r="19" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>35</v>
       </c>
@@ -7858,7 +7891,7 @@
       <c r="IU19" s="10"/>
       <c r="IV19" s="10"/>
     </row>
-    <row r="20" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>36</v>
       </c>
@@ -8058,7 +8091,7 @@
       <c r="IU20" s="10"/>
       <c r="IV20" s="10"/>
     </row>
-    <row r="21" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>1</v>
       </c>
@@ -8254,7 +8287,7 @@
       <c r="IU21" s="10"/>
       <c r="IV21" s="10"/>
     </row>
-    <row r="22" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>4</v>
       </c>
@@ -8450,7 +8483,7 @@
       <c r="IU22" s="10"/>
       <c r="IV22" s="10"/>
     </row>
-    <row r="23" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>31</v>
       </c>
@@ -8682,7 +8715,7 @@
       <c r="IU23" s="10"/>
       <c r="IV23" s="10"/>
     </row>
-    <row r="24" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>9</v>
       </c>
@@ -8920,7 +8953,7 @@
       <c r="IU24" s="10"/>
       <c r="IV24" s="10"/>
     </row>
-    <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -9075,7 +9108,7 @@
       <c r="EV25" s="12"/>
       <c r="EW25" s="12"/>
     </row>
-    <row r="26" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -9230,7 +9263,7 @@
       <c r="EV26" s="12"/>
       <c r="EW26" s="12"/>
     </row>
-    <row r="27" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -9397,25 +9430,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:QJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="QD1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="QJ7" sqref="QJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="18" customWidth="1"/>
-    <col min="4" max="79" width="8.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.88671875" style="18"/>
+    <col min="1" max="1" width="13.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="18" customWidth="1"/>
+    <col min="4" max="79" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="80" max="16384" width="9.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:452" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:452" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>60</v>
       </c>
@@ -10774,7 +10807,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="2" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>61</v>
       </c>
@@ -11329,7 +11362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>62</v>
       </c>
@@ -11947,7 +11980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>64</v>
       </c>
@@ -12213,7 +12246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>65</v>
       </c>
@@ -13443,7 +13476,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>63</v>
       </c>
@@ -14667,7 +14700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>66</v>
       </c>
@@ -14871,7 +14904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="18">
         <v>16</v>
       </c>
@@ -15630,7 +15663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="18">
         <v>11</v>
       </c>
@@ -16188,7 +16221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="23" t="s">
         <v>53</v>
       </c>
@@ -16198,7 +16231,7 @@
       </c>
       <c r="BO10" s="15"/>
     </row>
-    <row r="11" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="18">
         <v>17</v>
       </c>
@@ -16207,14 +16240,14 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="12" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="22">
         <v>21</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="22">
         <v>22</v>
       </c>
@@ -16222,7 +16255,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="18">
         <v>5</v>
       </c>
@@ -16230,7 +16263,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="18">
         <v>13</v>
       </c>
@@ -16238,7 +16271,7 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:452" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="18">
         <v>18</v>
       </c>
@@ -16246,7 +16279,7 @@
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="18">
         <v>30</v>
       </c>
@@ -16254,7 +16287,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18">
         <v>30</v>
       </c>
@@ -16264,7 +16297,7 @@
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="18">
         <v>30</v>
       </c>
@@ -16274,7 +16307,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="18">
         <v>35</v>
       </c>
@@ -16282,7 +16315,7 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="18">
         <v>36</v>
       </c>
@@ -16290,7 +16323,7 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="18">
         <v>1</v>
       </c>
@@ -16298,7 +16331,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:257" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="24" t="s">
         <v>4</v>
       </c>
@@ -16306,7 +16339,7 @@
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="2:257" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:257" x14ac:dyDescent="0.15">
       <c r="B24" s="22">
         <v>31</v>
       </c>
@@ -16314,7 +16347,7 @@
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="2:257" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:257" x14ac:dyDescent="0.15">
       <c r="B25" s="22">
         <v>9</v>
       </c>
@@ -16324,7 +16357,7 @@
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="2:257" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:257" x14ac:dyDescent="0.15">
       <c r="B26" s="18" t="s">
         <v>55</v>
       </c>
@@ -16332,7 +16365,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="27" spans="2:257" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:257" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>56</v>
       </c>
@@ -16340,7 +16373,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="2:257" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:257" x14ac:dyDescent="0.15">
       <c r="B28" s="23" t="s">
         <v>58</v>
       </c>
@@ -16348,7 +16381,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="29" spans="2:257" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:257" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
         <v>12</v>
       </c>
@@ -16360,7 +16393,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:JW29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:JW29">
     <sortCondition ref="A2:A29"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -16376,34 +16409,4 @@
     <oddHeader>&amp;L&amp;"Arial,Bold"&amp;14D2, QUEENS CREEK&amp;C&amp;"Arial,Bold"&amp;14Conditional Sampling&amp;R&amp;"Arial,Bold"&amp;14MAY 12, 2005 ---&gt;</oddHeader>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_d2.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_d2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/400_data_analytics/shellbase_bal/data/nc/conditional_sampling_ncdmf/datasheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/data_analytics_research/shellbase_with_usc/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465D145-58E9-1941-B628-D449A6952A44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DAE686-08AF-B74D-930B-7F3CDD9B08EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="500" windowWidth="14740" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,38 +17,28 @@
     <sheet name="MAY  '05 ----&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Dist_Bin" hidden="1">'JAN ''93 - JUN ''05'!$H$26:$H$27</definedName>
-    <definedName name="_Dist_Values" hidden="1">'JAN ''93 - JUN ''05'!$F$2:$F$21</definedName>
-    <definedName name="_Fill" hidden="1">'JAN ''93 - JUN ''05'!$T$2:$T$12</definedName>
-    <definedName name="_Key1" hidden="1">'JAN ''93 - JUN ''05'!$A$12</definedName>
-    <definedName name="_Key2" hidden="1">'JAN ''93 - JUN ''05'!$B$12</definedName>
+    <definedName name="_Dist_Bin" hidden="1">'JAN ''93 - JUN ''05'!$I$26:$I$27</definedName>
+    <definedName name="_Dist_Values" hidden="1">'JAN ''93 - JUN ''05'!$G$2:$G$21</definedName>
+    <definedName name="_Fill" hidden="1">'JAN ''93 - JUN ''05'!$U$2:$U$12</definedName>
+    <definedName name="_Key1" hidden="1">'JAN ''93 - JUN ''05'!$B$12</definedName>
+    <definedName name="_Key2" hidden="1">'JAN ''93 - JUN ''05'!$C$12</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
-    <definedName name="_Sort" hidden="1">'JAN ''93 - JUN ''05'!$A$2:$G$1805</definedName>
-    <definedName name="\E">'JAN ''93 - JUN ''05'!$E$597</definedName>
-    <definedName name="\G">'JAN ''93 - JUN ''05'!$A$597</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'JAN ''93 - JUN ''05'!$C$1:$IT$24</definedName>
+    <definedName name="_Sort" hidden="1">'JAN ''93 - JUN ''05'!$B$2:$H$1805</definedName>
+    <definedName name="\E">'JAN ''93 - JUN ''05'!$F$597</definedName>
+    <definedName name="\G">'JAN ''93 - JUN ''05'!$B$597</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'JAN ''93 - JUN ''05'!$D$1:$IU$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'MAY  ''05 ----&gt;'!$BJ$1:$CA$25</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'JAN ''93 - JUN ''05'!$A:$B</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'JAN ''93 - JUN ''05'!$B:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'MAY  ''05 ----&gt;'!$B:$C</definedName>
-    <definedName name="Print_Titles_MI" localSheetId="0">'JAN ''93 - JUN ''05'!$A:$B</definedName>
+    <definedName name="Print_Titles_MI" localSheetId="0">'JAN ''93 - JUN ''05'!$B:$C</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>STATION</t>
   </si>
@@ -735,1021 +725,1022 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1" transitionEntry="1" codeName="Sheet1"/>
-  <dimension ref="A1:IV27"/>
+  <dimension ref="A1:IW27"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="IJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="IV1" sqref="IV1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="12" customWidth="1"/>
-    <col min="2" max="2" width="4" style="13" customWidth="1"/>
-    <col min="3" max="151" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="152" max="153" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="154" max="164" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="165" max="167" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="169" max="175" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="176" max="194" width="8" style="1" customWidth="1"/>
-    <col min="195" max="195" width="7" style="1" customWidth="1"/>
-    <col min="196" max="199" width="8" style="14" customWidth="1"/>
-    <col min="200" max="200" width="8" style="1" customWidth="1"/>
-    <col min="201" max="203" width="8" style="14" customWidth="1"/>
-    <col min="204" max="204" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="8" style="14" customWidth="1"/>
-    <col min="206" max="213" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="214" max="221" width="8" style="14" customWidth="1"/>
-    <col min="222" max="222" width="8" style="1" customWidth="1"/>
-    <col min="223" max="226" width="8" style="14" customWidth="1"/>
-    <col min="227" max="227" width="8" style="14" bestFit="1"/>
-    <col min="228" max="16384" width="8" style="14"/>
+    <col min="1" max="1" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="12" customWidth="1"/>
+    <col min="3" max="3" width="4" style="13" customWidth="1"/>
+    <col min="4" max="152" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="153" max="154" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="155" max="165" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="166" max="168" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="170" max="176" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="177" max="195" width="8" style="1" customWidth="1"/>
+    <col min="196" max="196" width="7" style="1" customWidth="1"/>
+    <col min="197" max="200" width="8" style="14" customWidth="1"/>
+    <col min="201" max="201" width="8" style="1" customWidth="1"/>
+    <col min="202" max="204" width="8" style="14" customWidth="1"/>
+    <col min="205" max="205" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="8" style="14" customWidth="1"/>
+    <col min="207" max="214" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="215" max="222" width="8" style="14" customWidth="1"/>
+    <col min="223" max="223" width="8" style="1" customWidth="1"/>
+    <col min="224" max="227" width="8" style="14" customWidth="1"/>
+    <col min="228" max="228" width="8" style="14" bestFit="1"/>
+    <col min="229" max="16384" width="8" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:257" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D1" s="3">
         <f>DATE(93,1,15)</f>
         <v>33984</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E1" s="3">
         <f>DATE(93,1,21)</f>
         <v>33990</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <f>DATE(93,2,9)</f>
         <v>34009</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <f>DATE(93,2,15)</f>
         <v>34015</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="3">
         <f>DATE(93,2,18)</f>
         <v>34018</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <f>DATE(93,3,16)</f>
         <v>34044</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <f>DATE(93,3,29)</f>
         <v>34057</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <f>DATE(93,4,1)</f>
         <v>34060</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <f>DATE(93,4,9)</f>
         <v>34068</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <f>DATE(93,7,6)</f>
         <v>34156</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <f>DATE(93,7,26)</f>
         <v>34176</v>
       </c>
-      <c r="N1" s="3">
+      <c r="O1" s="3">
         <f>DATE(93,8,2)</f>
         <v>34183</v>
       </c>
-      <c r="O1" s="3">
+      <c r="P1" s="3">
         <f>DATE(93,8,19)</f>
         <v>34200</v>
       </c>
-      <c r="P1" s="3">
+      <c r="Q1" s="3">
         <f>DATE(93,8,23)</f>
         <v>34204</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="R1" s="3">
         <f>DATE(93,9,7)</f>
         <v>34219</v>
       </c>
-      <c r="R1" s="3">
+      <c r="S1" s="3">
         <f>DATE(93,10,18)</f>
         <v>34260</v>
       </c>
-      <c r="S1" s="3">
+      <c r="T1" s="3">
         <f>DATE(93,10,29)</f>
         <v>34271</v>
       </c>
-      <c r="T1" s="3">
+      <c r="U1" s="3">
         <f>DATE(93,11,1)</f>
         <v>34274</v>
       </c>
-      <c r="U1" s="3">
+      <c r="V1" s="3">
         <f>DATE(93,11,29)</f>
         <v>34302</v>
       </c>
-      <c r="V1" s="3">
+      <c r="W1" s="3">
         <f>DATE(94,1,5)</f>
         <v>34339</v>
       </c>
-      <c r="W1" s="3">
+      <c r="X1" s="3">
         <f>DATE(94,1,7)</f>
         <v>34341</v>
       </c>
-      <c r="X1" s="3">
+      <c r="Y1" s="3">
         <f>DATE(94,1,18)</f>
         <v>34352</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Z1" s="3">
         <f>DATE(94,2,3)</f>
         <v>34368</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="AA1" s="3">
         <f>DATE(94,3,6)</f>
         <v>34399</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AB1" s="3">
         <f>DATE(94,3,9)</f>
         <v>34402</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AC1" s="3">
         <f>DATE(94,8,17)</f>
         <v>34563</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AD1" s="3">
         <f>DATE(94,8,22)</f>
         <v>34568</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AE1" s="3">
         <f>DATE(94,9,14)</f>
         <v>34591</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AF1" s="3">
         <f>DATE(94,9,20)</f>
         <v>34597</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AG1" s="3">
         <f>DATE(94,10,18)</f>
         <v>34625</v>
       </c>
-      <c r="AG1" s="3">
+      <c r="AH1" s="3">
         <f>DATE(94,11,21)</f>
         <v>34659</v>
       </c>
-      <c r="AH1" s="3">
+      <c r="AI1" s="3">
         <f>DATE(94,11,30)</f>
         <v>34668</v>
       </c>
-      <c r="AI1" s="3">
+      <c r="AJ1" s="3">
         <f>DATE(94,12,1)</f>
         <v>34669</v>
       </c>
-      <c r="AJ1" s="3">
+      <c r="AK1" s="3">
         <f>DATE(94,12,27)</f>
         <v>34695</v>
       </c>
-      <c r="AK1" s="3">
+      <c r="AL1" s="3">
         <f>DATE(94,12,29)</f>
         <v>34697</v>
       </c>
-      <c r="AL1" s="3">
+      <c r="AM1" s="3">
         <f>DATE(95,1,9)</f>
         <v>34708</v>
       </c>
-      <c r="AM1" s="3">
+      <c r="AN1" s="3">
         <f>DATE(95,1,12)</f>
         <v>34711</v>
       </c>
-      <c r="AN1" s="3">
+      <c r="AO1" s="3">
         <f>DATE(95,1,18)</f>
         <v>34717</v>
       </c>
-      <c r="AO1" s="3">
+      <c r="AP1" s="3">
         <f>DATE(95,1,23)</f>
         <v>34722</v>
       </c>
-      <c r="AP1" s="3">
+      <c r="AQ1" s="3">
         <f>DATE(95,1,25)</f>
         <v>34724</v>
       </c>
-      <c r="AQ1" s="3">
+      <c r="AR1" s="3">
         <f>DATE(95,2,13)</f>
         <v>34743</v>
       </c>
-      <c r="AR1" s="3">
+      <c r="AS1" s="3">
         <f>DATE(95,2,21)</f>
         <v>34751</v>
       </c>
-      <c r="AS1" s="3">
+      <c r="AT1" s="3">
         <f>DATE(95,2,27)</f>
         <v>34757</v>
       </c>
-      <c r="AT1" s="3">
+      <c r="AU1" s="3">
         <f>DATE(95,6,9)</f>
         <v>34859</v>
       </c>
-      <c r="AU1" s="3">
+      <c r="AV1" s="3">
         <f>DATE(95,6,20)</f>
         <v>34870</v>
       </c>
-      <c r="AV1" s="3">
+      <c r="AW1" s="3">
         <f>DATE(95,8,28)</f>
         <v>34939</v>
       </c>
-      <c r="AW1" s="3">
+      <c r="AX1" s="3">
         <f>DATE(95,8,30)</f>
         <v>34941</v>
       </c>
-      <c r="AX1" s="3">
+      <c r="AY1" s="3">
         <f>DATE(95,9,12)</f>
         <v>34954</v>
       </c>
-      <c r="AY1" s="3">
+      <c r="AZ1" s="3">
         <f>DATE(95,9,28)</f>
         <v>34970</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="BA1" s="3">
         <f>DATE(96,1,30)</f>
         <v>35094</v>
       </c>
-      <c r="BA1" s="3">
+      <c r="BB1" s="3">
         <f>DATE(96,2,2)</f>
         <v>35097</v>
       </c>
-      <c r="BB1" s="3">
+      <c r="BC1" s="3">
         <f>DATE(96,2,6)</f>
         <v>35101</v>
       </c>
-      <c r="BC1" s="3">
+      <c r="BD1" s="3">
         <f>DATE(96,4,2)</f>
         <v>35157</v>
       </c>
-      <c r="BD1" s="3">
+      <c r="BE1" s="3">
         <f>DATE(96,4,3)</f>
         <v>35158</v>
       </c>
-      <c r="BE1" s="3">
+      <c r="BF1" s="3">
         <f>DATE(96,5,13)</f>
         <v>35198</v>
       </c>
-      <c r="BF1" s="3">
+      <c r="BG1" s="3">
         <f>DATE(96,6,28)</f>
         <v>35244</v>
       </c>
-      <c r="BG1" s="3">
+      <c r="BH1" s="3">
         <f>DATE(96,7,19)</f>
         <v>35265</v>
       </c>
-      <c r="BH1" s="3">
+      <c r="BI1" s="3">
         <f>DATE(96,7,29)</f>
         <v>35275</v>
       </c>
-      <c r="BI1" s="3">
+      <c r="BJ1" s="3">
         <f>DATE(96,8,1)</f>
         <v>35278</v>
       </c>
-      <c r="BJ1" s="3">
+      <c r="BK1" s="3">
         <f>DATE(96,8,5)</f>
         <v>35282</v>
       </c>
-      <c r="BK1" s="3">
+      <c r="BL1" s="3">
         <f>DATE(96,8,14)</f>
         <v>35291</v>
       </c>
-      <c r="BL1" s="3">
+      <c r="BM1" s="3">
         <f>DATE(96,8,19)</f>
         <v>35296</v>
       </c>
-      <c r="BM1" s="3">
+      <c r="BN1" s="3">
         <f>DATE(96,9,12)</f>
         <v>35320</v>
       </c>
-      <c r="BN1" s="3">
+      <c r="BO1" s="3">
         <f>DATE(96,9,19)</f>
         <v>35327</v>
       </c>
-      <c r="BO1" s="3">
+      <c r="BP1" s="3">
         <f>DATE(96,9,21)</f>
         <v>35329</v>
       </c>
-      <c r="BP1" s="3">
+      <c r="BQ1" s="3">
         <f>DATE(96,9,24)</f>
         <v>35332</v>
       </c>
-      <c r="BQ1" s="3">
+      <c r="BR1" s="3">
         <f>DATE(96,9,25)</f>
         <v>35333</v>
       </c>
-      <c r="BR1" s="3">
+      <c r="BS1" s="3">
         <f>DATE(96,10,14)</f>
         <v>35352</v>
       </c>
-      <c r="BS1" s="3">
+      <c r="BT1" s="3">
         <f>DATE(96,12,2)</f>
         <v>35401</v>
       </c>
-      <c r="BT1" s="3">
+      <c r="BU1" s="3">
         <f>DATE(97,2,17)</f>
         <v>35478</v>
       </c>
-      <c r="BU1" s="3">
+      <c r="BV1" s="3">
         <f>DATE(97,2,20)</f>
         <v>35481</v>
       </c>
-      <c r="BV1" s="3">
+      <c r="BW1" s="3">
         <f>DATE(97,3,17)</f>
         <v>35506</v>
       </c>
-      <c r="BW1" s="3">
+      <c r="BX1" s="3">
         <f>DATE(97,4,30)</f>
         <v>35550</v>
       </c>
-      <c r="BX1" s="3">
+      <c r="BY1" s="3">
         <f>DATE(97,5,2)</f>
         <v>35552</v>
       </c>
-      <c r="BY1" s="3">
+      <c r="BZ1" s="3">
         <f>DATE(97,6,9)</f>
         <v>35590</v>
       </c>
-      <c r="BZ1" s="3">
+      <c r="CA1" s="3">
         <f>DATE(97,7,28)</f>
         <v>35639</v>
       </c>
-      <c r="CA1" s="3">
+      <c r="CB1" s="3">
         <f>DATE(97,7,31)</f>
         <v>35642</v>
       </c>
-      <c r="CB1" s="3">
+      <c r="CC1" s="3">
         <f>DATE(97,9,14)</f>
         <v>35687</v>
       </c>
-      <c r="CC1" s="3">
+      <c r="CD1" s="3">
         <f>DATE(97,9,16)</f>
         <v>35689</v>
       </c>
-      <c r="CD1" s="3">
+      <c r="CE1" s="3">
         <f>DATE(97,9,18)</f>
         <v>35691</v>
       </c>
-      <c r="CE1" s="3">
+      <c r="CF1" s="3">
         <f>DATE(97,9,30)</f>
         <v>35703</v>
       </c>
-      <c r="CF1" s="3">
+      <c r="CG1" s="3">
         <f>DATE(97,11,3)</f>
         <v>35737</v>
       </c>
-      <c r="CG1" s="3">
+      <c r="CH1" s="3">
         <f>DATE(97,11,4)</f>
         <v>35738</v>
       </c>
-      <c r="CH1" s="3">
+      <c r="CI1" s="3">
         <f>DATE(97,12,2)</f>
         <v>35766</v>
       </c>
-      <c r="CI1" s="3">
+      <c r="CJ1" s="3">
         <f>DATE(97,12,4)</f>
         <v>35768</v>
       </c>
-      <c r="CJ1" s="3">
+      <c r="CK1" s="3">
         <f>DATE(97,12,7)</f>
         <v>35771</v>
       </c>
-      <c r="CK1" s="3">
+      <c r="CL1" s="3">
         <f>DATE(97,12,10)</f>
         <v>35774</v>
       </c>
-      <c r="CL1" s="3">
+      <c r="CM1" s="3">
         <f>DATE(98,1,30)</f>
         <v>35825</v>
       </c>
-      <c r="CM1" s="3">
+      <c r="CN1" s="3">
         <f>DATE(98,2,9)</f>
         <v>35835</v>
       </c>
-      <c r="CN1" s="3">
+      <c r="CO1" s="3">
         <f>DATE(98,2,11)</f>
         <v>35837</v>
       </c>
-      <c r="CO1" s="3">
+      <c r="CP1" s="3">
         <f>DATE(98,2,13)</f>
         <v>35839</v>
       </c>
-      <c r="CP1" s="3">
+      <c r="CQ1" s="3">
         <f>DATE(98,2,19)</f>
         <v>35845</v>
       </c>
-      <c r="CQ1" s="3">
+      <c r="CR1" s="3">
         <f>DATE(98,2,22)</f>
         <v>35848</v>
       </c>
-      <c r="CR1" s="3">
+      <c r="CS1" s="3">
         <f>DATE(98,2,24)</f>
         <v>35850</v>
       </c>
-      <c r="CS1" s="3">
+      <c r="CT1" s="3">
         <f>DATE(98,2,26)</f>
         <v>35852</v>
       </c>
-      <c r="CT1" s="3">
+      <c r="CU1" s="3">
         <f>DATE(98,5,4)</f>
         <v>35919</v>
       </c>
-      <c r="CU1" s="3">
+      <c r="CV1" s="3">
         <f>DATE(98,5,7)</f>
         <v>35922</v>
       </c>
-      <c r="CV1" s="3">
+      <c r="CW1" s="3">
         <f>DATE(98,5,12)</f>
         <v>35927</v>
       </c>
-      <c r="CW1" s="3">
+      <c r="CX1" s="3">
         <f>DATE(98,7,20)</f>
         <v>35996</v>
       </c>
-      <c r="CX1" s="3">
+      <c r="CY1" s="3">
         <f>DATE(98,8,3)</f>
         <v>36010</v>
       </c>
-      <c r="CY1" s="3">
+      <c r="CZ1" s="3">
         <f>DATE(98,9,1)</f>
         <v>36039</v>
       </c>
-      <c r="CZ1" s="3">
+      <c r="DA1" s="3">
         <f>DATE(98,9,3)</f>
         <v>36041</v>
       </c>
-      <c r="DA1" s="3">
+      <c r="DB1" s="3">
         <f>DATE(98,9,8)</f>
         <v>36046</v>
       </c>
-      <c r="DB1" s="3">
+      <c r="DC1" s="3">
         <f>DATE(98,12,30)</f>
         <v>36159</v>
       </c>
-      <c r="DC1" s="3">
+      <c r="DD1" s="3">
         <f>DATE(99,1,5)</f>
         <v>36165</v>
       </c>
-      <c r="DD1" s="3">
+      <c r="DE1" s="3">
         <f>DATE(99,5,5)</f>
         <v>36285</v>
       </c>
-      <c r="DE1" s="3">
+      <c r="DF1" s="3">
         <f>DATE(99,6,22)</f>
         <v>36333</v>
       </c>
-      <c r="DF1" s="3">
+      <c r="DG1" s="3">
         <f>DATE(99,6,24)</f>
         <v>36335</v>
       </c>
-      <c r="DG1" s="3">
+      <c r="DH1" s="3">
         <f>DATE(99,9,3)</f>
         <v>36406</v>
       </c>
-      <c r="DH1" s="3">
+      <c r="DI1" s="3">
         <f>DATE(99,9,8)</f>
         <v>36411</v>
       </c>
-      <c r="DI1" s="3">
+      <c r="DJ1" s="3">
         <f>DATE(99,9,13)</f>
         <v>36416</v>
       </c>
-      <c r="DJ1" s="3">
+      <c r="DK1" s="3">
         <f>DATE(99,10,6)</f>
         <v>36439</v>
       </c>
-      <c r="DK1" s="3">
+      <c r="DL1" s="3">
         <f>DATE(99,10,11)</f>
         <v>36444</v>
       </c>
-      <c r="DL1" s="3">
+      <c r="DM1" s="3">
         <f>DATE(99,10,20)</f>
         <v>36453</v>
       </c>
-      <c r="DM1" s="3">
+      <c r="DN1" s="3">
         <f>DATE(99,10,25)</f>
         <v>36458</v>
       </c>
-      <c r="DN1" s="3">
+      <c r="DO1" s="3">
         <f>DATE(99,11,3)</f>
         <v>36467</v>
       </c>
-      <c r="DO1" s="3">
+      <c r="DP1" s="3">
         <f>DATE(99,11,7)</f>
         <v>36471</v>
       </c>
-      <c r="DP1" s="3">
+      <c r="DQ1" s="3">
         <f>DATE(2000,1,27)</f>
         <v>36552</v>
       </c>
-      <c r="DQ1" s="3">
+      <c r="DR1" s="3">
         <f>DATE(2000,1,31)</f>
         <v>36556</v>
       </c>
-      <c r="DR1" s="3">
+      <c r="DS1" s="3">
         <f>DATE(2000,3,23)</f>
         <v>36608</v>
       </c>
-      <c r="DS1" s="3">
+      <c r="DT1" s="3">
         <f>DATE(2000,3,28)</f>
         <v>36613</v>
       </c>
-      <c r="DT1" s="3">
+      <c r="DU1" s="3">
         <f>DATE(2000,4,18)</f>
         <v>36634</v>
       </c>
-      <c r="DU1" s="3">
+      <c r="DV1" s="3">
         <f>DATE(2000,4,20)</f>
         <v>36636</v>
       </c>
-      <c r="DV1" s="3">
+      <c r="DW1" s="3">
         <f>DATE(2000,5,24)</f>
         <v>36670</v>
       </c>
-      <c r="DW1" s="3">
+      <c r="DX1" s="3">
         <f>DATE(2000,7,24)</f>
         <v>36731</v>
       </c>
-      <c r="DX1" s="3">
+      <c r="DY1" s="3">
         <f>DATE(2000,7,28)</f>
         <v>36735</v>
       </c>
-      <c r="DY1" s="3">
+      <c r="DZ1" s="3">
         <f>DATE(2000,8,7)</f>
         <v>36745</v>
       </c>
-      <c r="DZ1" s="3">
+      <c r="EA1" s="3">
         <f>DATE(2000,8,31)</f>
         <v>36769</v>
       </c>
-      <c r="EA1" s="3">
+      <c r="EB1" s="3">
         <f>DATE(2000,9,8)</f>
         <v>36777</v>
       </c>
-      <c r="EB1" s="3">
+      <c r="EC1" s="3">
         <f>DATE(2000,9,11)</f>
         <v>36780</v>
       </c>
-      <c r="EC1" s="3">
+      <c r="ED1" s="3">
         <f>DATE(2000,9,21)</f>
         <v>36790</v>
       </c>
-      <c r="ED1" s="3">
+      <c r="EE1" s="3">
         <f>DATE(2000,9,25)</f>
         <v>36794</v>
       </c>
-      <c r="EE1" s="3">
+      <c r="EF1" s="3">
         <f>DATE(2000,9,27)</f>
         <v>36796</v>
       </c>
-      <c r="EF1" s="3">
+      <c r="EG1" s="3">
         <f>DATE(2000,9,29)</f>
         <v>36798</v>
       </c>
-      <c r="EG1" s="3">
+      <c r="EH1" s="3">
         <f>DATE(2000,11,28)</f>
         <v>36858</v>
       </c>
-      <c r="EH1" s="3">
+      <c r="EI1" s="3">
         <f>DATE(2000,11,30)</f>
         <v>36860</v>
       </c>
-      <c r="EI1" s="3">
+      <c r="EJ1" s="3">
         <f>DATE(2000,12,1)</f>
         <v>36861</v>
       </c>
-      <c r="EJ1" s="3">
+      <c r="EK1" s="3">
         <f>DATE(2000,12,5)</f>
         <v>36865</v>
       </c>
-      <c r="EK1" s="3">
+      <c r="EL1" s="3">
         <f>DATE(2000,12,7)</f>
         <v>36867</v>
       </c>
-      <c r="EL1" s="3">
+      <c r="EM1" s="3">
         <f>DATE(2001,3,22)</f>
         <v>36972</v>
       </c>
-      <c r="EM1" s="3">
+      <c r="EN1" s="3">
         <f>DATE(2001,3,26)</f>
         <v>36976</v>
       </c>
-      <c r="EN1" s="3">
+      <c r="EO1" s="3">
         <f>DATE(2001,7,9)</f>
         <v>37081</v>
       </c>
-      <c r="EO1" s="3">
+      <c r="EP1" s="3">
         <f>DATE(2001,8,16)</f>
         <v>37119</v>
       </c>
-      <c r="EP1" s="3">
+      <c r="EQ1" s="3">
         <f>DATE(2001,8,21)</f>
         <v>37124</v>
       </c>
-      <c r="EQ1" s="3">
+      <c r="ER1" s="3">
         <f>DATE(2002,2,10)</f>
         <v>37297</v>
       </c>
-      <c r="ER1" s="3">
+      <c r="ES1" s="3">
         <f>DATE(2002,3,5)</f>
         <v>37320</v>
       </c>
-      <c r="ES1" s="3">
+      <c r="ET1" s="3">
         <f>DATE(2002,3,7)</f>
         <v>37322</v>
       </c>
-      <c r="ET1" s="3">
+      <c r="EU1" s="3">
         <f>DATE(2002,3,17)</f>
         <v>37332</v>
       </c>
-      <c r="EU1" s="3">
+      <c r="EV1" s="3">
         <f>DATE(2002,5,6)</f>
         <v>37382</v>
       </c>
-      <c r="EV1" s="3">
+      <c r="EW1" s="3">
         <v>37383</v>
       </c>
-      <c r="EW1" s="3">
+      <c r="EX1" s="3">
         <v>37424</v>
       </c>
-      <c r="EX1" s="3">
+      <c r="EY1" s="3">
         <f>DATE(2002,7,12)</f>
         <v>37449</v>
       </c>
-      <c r="EY1" s="3">
+      <c r="EZ1" s="3">
         <f>DATE(2002,7,15)</f>
         <v>37452</v>
       </c>
-      <c r="EZ1" s="3">
+      <c r="FA1" s="3">
         <f>DATE(2002,9,3)</f>
         <v>37502</v>
       </c>
-      <c r="FA1" s="3">
+      <c r="FB1" s="3">
         <f>DATE(2002,9,4)</f>
         <v>37503</v>
       </c>
-      <c r="FB1" s="3">
+      <c r="FC1" s="3">
         <f>DATE(2002,10,14)</f>
         <v>37543</v>
       </c>
-      <c r="FC1" s="3">
+      <c r="FD1" s="3">
         <f>DATE(2002,10,16)</f>
         <v>37545</v>
       </c>
-      <c r="FD1" s="3">
+      <c r="FE1" s="3">
         <f>DATE(2002,10,18)</f>
         <v>37547</v>
       </c>
-      <c r="FE1" s="3">
+      <c r="FF1" s="3">
         <v>37685</v>
       </c>
-      <c r="FF1" s="3">
+      <c r="FG1" s="3">
         <v>37689</v>
       </c>
-      <c r="FG1" s="3">
+      <c r="FH1" s="3">
         <v>37691</v>
       </c>
-      <c r="FH1" s="3">
+      <c r="FI1" s="3">
         <v>37692</v>
       </c>
-      <c r="FI1" s="3">
+      <c r="FJ1" s="3">
         <v>37703</v>
       </c>
-      <c r="FJ1" s="3">
+      <c r="FK1" s="3">
         <v>37704</v>
       </c>
-      <c r="FK1" s="3">
+      <c r="FL1" s="3">
         <v>37706</v>
       </c>
-      <c r="FL1" s="3">
+      <c r="FM1" s="3">
         <v>37725</v>
       </c>
-      <c r="FM1" s="3">
+      <c r="FN1" s="3">
         <v>37726</v>
       </c>
-      <c r="FN1" s="3">
+      <c r="FO1" s="3">
         <v>37727</v>
       </c>
-      <c r="FO1" s="3">
+      <c r="FP1" s="3">
         <v>37769</v>
       </c>
-      <c r="FP1" s="3">
+      <c r="FQ1" s="3">
         <v>37774</v>
       </c>
-      <c r="FQ1" s="3">
+      <c r="FR1" s="3">
         <v>37775</v>
       </c>
-      <c r="FR1" s="3">
+      <c r="FS1" s="3">
         <v>37794</v>
       </c>
-      <c r="FS1" s="3">
+      <c r="FT1" s="3">
         <v>37817</v>
       </c>
-      <c r="FT1" s="5" t="s">
+      <c r="FU1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="FU1" s="5" t="s">
+      <c r="FV1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="FV1" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="FW1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="FX1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="FX1" s="5" t="s">
+      <c r="FY1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="FY1" s="5" t="s">
+      <c r="FZ1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="FZ1" s="5" t="s">
+      <c r="GA1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="GA1" s="5" t="s">
+      <c r="GB1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="GB1" s="5" t="s">
+      <c r="GC1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="GC1" s="5" t="s">
+      <c r="GD1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="GD1" s="5" t="s">
+      <c r="GE1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="GE1" s="5" t="s">
+      <c r="GF1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="GF1" s="5" t="s">
+      <c r="GG1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="GG1" s="5" t="s">
+      <c r="GH1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="GH1" s="5" t="s">
+      <c r="GI1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="GI1" s="5" t="s">
+      <c r="GJ1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="GJ1" s="5" t="s">
+      <c r="GK1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="GK1" s="5" t="s">
+      <c r="GL1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="GL1" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="GM1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="GN1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="GN1" s="5" t="s">
+      <c r="GO1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="GO1" s="5" t="s">
+      <c r="GP1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="GP1" s="5" t="s">
+      <c r="GQ1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="GQ1" s="5" t="s">
+      <c r="GR1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="GR1" s="5" t="s">
+      <c r="GS1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="GS1" s="5" t="s">
+      <c r="GT1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="GT1" s="5" t="s">
+      <c r="GU1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="GU1" s="5" t="s">
+      <c r="GV1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="GV1" s="5">
+      <c r="GW1" s="5">
         <f>DATE(2003,12,12)</f>
         <v>37967</v>
       </c>
-      <c r="GW1" s="5" t="s">
+      <c r="GX1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="GX1" s="5">
+      <c r="GY1" s="5">
         <f>DATE(2004,12,18)</f>
         <v>38339</v>
       </c>
-      <c r="GY1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="GZ1" s="3">
+      <c r="GZ1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="HA1" s="3">
         <f>DATE(2003,12,22)</f>
         <v>37977</v>
       </c>
-      <c r="HA1" s="5" t="s">
+      <c r="HB1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="HB1" s="5" t="s">
+      <c r="HC1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="HC1" s="5" t="s">
+      <c r="HD1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="HD1" s="5" t="s">
+      <c r="HE1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="HE1" s="5" t="s">
+      <c r="HF1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="HF1" s="5" t="s">
+      <c r="HG1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="HG1" s="5" t="s">
+      <c r="HH1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="HH1" s="5" t="s">
+      <c r="HI1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="HI1" s="5" t="s">
+      <c r="HJ1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="HJ1" s="5" t="s">
+      <c r="HK1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="HK1" s="5" t="s">
+      <c r="HL1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="HL1" s="5" t="s">
+      <c r="HM1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="HM1" s="5" t="s">
+      <c r="HN1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="HN1" s="5" t="s">
+      <c r="HO1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="HO1" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="HP1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="HQ1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="HQ1" s="5" t="s">
+      <c r="HR1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="HR1" s="5" t="s">
+      <c r="HS1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="HS1" s="3">
+      <c r="HT1" s="3">
         <f>DATE(4,6,3)</f>
         <v>1616</v>
       </c>
-      <c r="HT1" s="3">
+      <c r="HU1" s="3">
         <f>DATE(4,6,13)</f>
         <v>1626</v>
       </c>
-      <c r="HU1" s="3">
+      <c r="HV1" s="3">
         <f>DATE(4,6,14)</f>
         <v>1627</v>
       </c>
-      <c r="HV1" s="3">
+      <c r="HW1" s="3">
         <f>DATE(2004,7,26)</f>
         <v>38194</v>
       </c>
-      <c r="HW1" s="3">
+      <c r="HX1" s="3">
         <f>DATE(2004,7,31)</f>
         <v>38199</v>
       </c>
-      <c r="HX1" s="3">
+      <c r="HY1" s="3">
         <f>DATE(2004,8,5)</f>
         <v>38204</v>
       </c>
-      <c r="HY1" s="3">
+      <c r="HZ1" s="3">
         <v>38207</v>
       </c>
-      <c r="HZ1" s="3">
+      <c r="IA1" s="3">
         <v>38209</v>
       </c>
-      <c r="IA1" s="3">
+      <c r="IB1" s="3">
         <v>38216</v>
       </c>
-      <c r="IB1" s="3">
+      <c r="IC1" s="3">
         <v>38218</v>
       </c>
-      <c r="IC1" s="3">
+      <c r="ID1" s="3">
         <f>DATE(2004,8,21)</f>
         <v>38220</v>
       </c>
-      <c r="ID1" s="3">
+      <c r="IE1" s="3">
         <f>DATE(2004,8,23)</f>
         <v>38222</v>
       </c>
-      <c r="IE1" s="3">
+      <c r="IF1" s="3">
         <f>DATE(2004,8,24)</f>
         <v>38223</v>
       </c>
-      <c r="IF1" s="3">
+      <c r="IG1" s="3">
         <f>DATE(2004,8,25)</f>
         <v>38224</v>
       </c>
-      <c r="IG1" s="3">
+      <c r="IH1" s="3">
         <v>38230</v>
       </c>
-      <c r="IH1" s="3">
+      <c r="II1" s="3">
         <f>DATE(2004,9,4)</f>
         <v>38234</v>
       </c>
-      <c r="II1" s="3">
+      <c r="IJ1" s="3">
         <v>38238</v>
       </c>
-      <c r="IJ1" s="3">
+      <c r="IK1" s="3">
         <v>38243</v>
       </c>
-      <c r="IK1" s="3">
+      <c r="IL1" s="3">
         <v>38246</v>
       </c>
-      <c r="IL1" s="3">
+      <c r="IM1" s="3">
         <f>DATE(2004,9,20)</f>
         <v>38250</v>
       </c>
-      <c r="IM1" s="3">
+      <c r="IN1" s="3">
         <f>DATE(2004,9,21)</f>
         <v>38251</v>
       </c>
-      <c r="IN1" s="3">
+      <c r="IO1" s="3">
         <f>DATE(2004,9,23)</f>
         <v>38253</v>
       </c>
-      <c r="IO1" s="3">
+      <c r="IP1" s="3">
         <f>DATE(2004,9,29)</f>
         <v>38259</v>
       </c>
-      <c r="IP1" s="3">
+      <c r="IQ1" s="3">
         <f>DATE(2004,10,4)</f>
         <v>38264</v>
       </c>
-      <c r="IQ1" s="3">
+      <c r="IR1" s="3">
         <v>38448</v>
       </c>
-      <c r="IR1" s="3">
+      <c r="IS1" s="3">
         <v>38481</v>
       </c>
-      <c r="IS1" s="3">
+      <c r="IT1" s="3">
         <v>38482</v>
       </c>
-      <c r="IT1" s="3">
+      <c r="IU1" s="3">
         <v>38483</v>
       </c>
-      <c r="IU1" s="3">
+      <c r="IV1" s="3">
         <f>DATE(2005,5,12)</f>
         <v>38484</v>
       </c>
-      <c r="IV1" s="3">
+      <c r="IW1" s="3">
         <v>38508</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+    <row r="2" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="7">
         <v>19</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8">
-        <v>49</v>
-      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="8">
+        <v>49</v>
+      </c>
+      <c r="E2" s="8">
         <v>22</v>
       </c>
-      <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="8">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8">
         <v>20</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>130</v>
       </c>
-      <c r="J2" s="8">
-        <v>49</v>
-      </c>
       <c r="K2" s="8">
-        <v>7.8</v>
+        <v>49</v>
       </c>
       <c r="L2" s="8">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="M2" s="8">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="N2" s="8">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="O2" s="8">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="P2" s="8">
         <v>1.7</v>
@@ -1758,113 +1749,113 @@
         <v>1.7</v>
       </c>
       <c r="R2" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="S2" s="8">
         <v>17</v>
       </c>
-      <c r="S2" s="8">
+      <c r="T2" s="8">
         <v>1.7</v>
       </c>
-      <c r="T2" s="8">
+      <c r="U2" s="8">
         <v>4</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8">
+      <c r="V2" s="8"/>
+      <c r="W2" s="8">
         <v>70</v>
       </c>
-      <c r="W2" s="8">
+      <c r="X2" s="8">
         <v>4</v>
       </c>
-      <c r="X2" s="8">
+      <c r="Y2" s="8">
         <v>6.8</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Z2" s="8">
         <v>1.8</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="AA2" s="8">
         <v>130</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AB2" s="8">
         <v>17</v>
       </c>
-      <c r="AB2" s="8">
-        <v>49</v>
-      </c>
       <c r="AC2" s="8">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="AD2" s="8">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AE2" s="8">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="AF2" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="AG2" s="8">
         <v>6.1</v>
       </c>
-      <c r="AG2" s="8">
-        <v>2</v>
-      </c>
       <c r="AH2" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="8">
         <v>17</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AJ2" s="8">
         <v>11</v>
       </c>
-      <c r="AJ2" s="8">
+      <c r="AK2" s="8">
         <v>70</v>
       </c>
-      <c r="AK2" s="8">
-        <v>13</v>
-      </c>
       <c r="AL2" s="8">
+        <v>13</v>
+      </c>
+      <c r="AM2" s="8">
         <v>240</v>
       </c>
-      <c r="AM2" s="8">
-        <v>13</v>
-      </c>
       <c r="AN2" s="8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="AO2" s="8">
+        <v>33</v>
+      </c>
+      <c r="AP2" s="8">
         <v>79</v>
       </c>
-      <c r="AP2" s="8">
-        <v>33</v>
-      </c>
       <c r="AQ2" s="8">
+        <v>33</v>
+      </c>
+      <c r="AR2" s="8">
         <v>22</v>
       </c>
-      <c r="AR2" s="8"/>
       <c r="AS2" s="8"/>
-      <c r="AT2" s="8">
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8">
         <v>4</v>
       </c>
-      <c r="AU2" s="8">
+      <c r="AV2" s="8">
         <v>17</v>
       </c>
-      <c r="AV2" s="8">
+      <c r="AW2" s="8">
         <v>26</v>
       </c>
-      <c r="AW2" s="8">
-        <v>7.8</v>
-      </c>
       <c r="AX2" s="8">
-        <v>2</v>
-      </c>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8">
-        <v>23</v>
-      </c>
+        <v>7.8</v>
+      </c>
+      <c r="AY2" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="8"/>
       <c r="BA2" s="8">
-        <v>4.5</v>
+        <v>23</v>
       </c>
       <c r="BB2" s="8">
         <v>4.5</v>
       </c>
-      <c r="BC2" s="8"/>
+      <c r="BC2" s="8">
+        <v>4.5</v>
+      </c>
       <c r="BD2" s="8"/>
-      <c r="BE2" s="8">
-        <v>7.8</v>
-      </c>
+      <c r="BE2" s="8"/>
       <c r="BF2" s="8">
         <v>7.8</v>
       </c>
@@ -1872,368 +1863,370 @@
         <v>7.8</v>
       </c>
       <c r="BH2" s="8">
-        <v>49</v>
+        <v>7.8</v>
       </c>
       <c r="BI2" s="8">
-        <v>4.5</v>
+        <v>49</v>
       </c>
       <c r="BJ2" s="8">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="BK2" s="8">
+        <v>33</v>
+      </c>
+      <c r="BL2" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="BL2" s="8">
+      <c r="BM2" s="8">
         <v>4</v>
       </c>
-      <c r="BM2" s="8">
+      <c r="BN2" s="8">
         <v>79</v>
       </c>
-      <c r="BN2" s="8">
-        <v>23</v>
-      </c>
       <c r="BO2" s="8">
-        <v>7.8</v>
+        <v>23</v>
       </c>
       <c r="BP2" s="8">
-        <v>33</v>
+        <v>7.8</v>
       </c>
       <c r="BQ2" s="8">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="BR2" s="8">
+        <v>23</v>
+      </c>
+      <c r="BS2" s="8">
         <v>6.8</v>
       </c>
-      <c r="BS2" s="8">
+      <c r="BT2" s="8">
         <v>130</v>
       </c>
-      <c r="BT2" s="8">
-        <v>33</v>
-      </c>
       <c r="BU2" s="8">
+        <v>33</v>
+      </c>
+      <c r="BV2" s="8">
         <v>1.7</v>
       </c>
-      <c r="BV2" s="8">
+      <c r="BW2" s="8">
         <v>4</v>
       </c>
-      <c r="BW2" s="8">
-        <v>13</v>
-      </c>
-      <c r="BX2" s="8"/>
+      <c r="BX2" s="8">
+        <v>13</v>
+      </c>
       <c r="BY2" s="8"/>
-      <c r="BZ2" s="8">
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8">
         <v>1.7</v>
       </c>
-      <c r="CA2" s="8">
-        <v>7.8</v>
-      </c>
       <c r="CB2" s="8">
-        <v>23</v>
-      </c>
-      <c r="CC2" s="8"/>
-      <c r="CD2" s="8">
-        <v>4.5</v>
-      </c>
+        <v>7.8</v>
+      </c>
+      <c r="CC2" s="8">
+        <v>23</v>
+      </c>
+      <c r="CD2" s="8"/>
       <c r="CE2" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="CF2" s="8">
         <v>1.8</v>
       </c>
-      <c r="CF2" s="8">
-        <v>7.8</v>
-      </c>
       <c r="CG2" s="8">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="CH2" s="8">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="CI2" s="8">
+        <v>49</v>
+      </c>
+      <c r="CJ2" s="8">
         <v>6.8</v>
       </c>
-      <c r="CJ2" s="8"/>
       <c r="CK2" s="8"/>
-      <c r="CL2" s="8">
+      <c r="CL2" s="8"/>
+      <c r="CM2" s="8">
         <v>4</v>
       </c>
-      <c r="CM2" s="8">
+      <c r="CN2" s="8">
         <v>6.8</v>
       </c>
-      <c r="CN2" s="8"/>
       <c r="CO2" s="8"/>
-      <c r="CP2" s="8">
+      <c r="CP2" s="8"/>
+      <c r="CQ2" s="8">
         <v>350</v>
       </c>
-      <c r="CQ2" s="8">
+      <c r="CR2" s="8">
         <v>46</v>
       </c>
-      <c r="CR2" s="8">
+      <c r="CS2" s="8">
         <v>17</v>
       </c>
-      <c r="CS2" s="8">
-        <v>7.8</v>
-      </c>
       <c r="CT2" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="CU2" s="8">
         <v>4</v>
       </c>
-      <c r="CU2" s="8"/>
-      <c r="CV2" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="CW2" s="8"/>
-      <c r="CX2" s="8">
-        <v>4.5</v>
-      </c>
+      <c r="CV2" s="8"/>
+      <c r="CW2" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="CX2" s="8"/>
       <c r="CY2" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="CZ2" s="8">
         <v>130</v>
       </c>
-      <c r="CZ2" s="8">
+      <c r="DA2" s="8">
         <v>79</v>
       </c>
-      <c r="DA2" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="DB2" s="8"/>
+      <c r="DB2" s="8">
+        <v>4.5</v>
+      </c>
       <c r="DC2" s="8"/>
-      <c r="DD2" s="8">
+      <c r="DD2" s="8"/>
+      <c r="DE2" s="8">
         <v>1.7</v>
       </c>
-      <c r="DE2" s="8"/>
       <c r="DF2" s="8"/>
-      <c r="DG2" s="8">
-        <v>2</v>
-      </c>
-      <c r="DH2" s="8"/>
-      <c r="DI2" s="8">
+      <c r="DG2" s="8"/>
+      <c r="DH2" s="8">
+        <v>2</v>
+      </c>
+      <c r="DI2" s="8"/>
+      <c r="DJ2" s="8">
         <v>1.7</v>
       </c>
-      <c r="DJ2" s="8"/>
-      <c r="DK2" s="8">
-        <v>2</v>
-      </c>
+      <c r="DK2" s="8"/>
       <c r="DL2" s="8">
+        <v>2</v>
+      </c>
+      <c r="DM2" s="8">
         <v>130</v>
       </c>
-      <c r="DM2" s="8"/>
       <c r="DN2" s="8"/>
-      <c r="DO2" s="8">
+      <c r="DO2" s="8"/>
+      <c r="DP2" s="8">
         <v>1.7</v>
       </c>
-      <c r="DP2" s="8">
-        <v>49</v>
-      </c>
       <c r="DQ2" s="8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="DR2" s="8">
+        <v>23</v>
+      </c>
+      <c r="DS2" s="8">
         <v>1.8</v>
       </c>
-      <c r="DS2" s="8"/>
-      <c r="DT2" s="8">
-        <v>4.5</v>
-      </c>
+      <c r="DT2" s="8"/>
       <c r="DU2" s="8">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="DV2" s="8">
-        <v>2</v>
-      </c>
-      <c r="DW2" s="8"/>
-      <c r="DX2" s="8">
-        <v>4.5</v>
-      </c>
+        <v>7.8</v>
+      </c>
+      <c r="DW2" s="8">
+        <v>2</v>
+      </c>
+      <c r="DX2" s="8"/>
       <c r="DY2" s="8">
-        <v>23</v>
+        <v>4.5</v>
       </c>
       <c r="DZ2" s="8">
+        <v>23</v>
+      </c>
+      <c r="EA2" s="8">
         <v>70</v>
       </c>
-      <c r="EA2" s="8"/>
-      <c r="EB2" s="8">
+      <c r="EB2" s="8"/>
+      <c r="EC2" s="8">
         <v>6.8</v>
       </c>
-      <c r="EC2" s="8">
+      <c r="ED2" s="8">
         <v>240</v>
       </c>
-      <c r="ED2" s="8">
+      <c r="EE2" s="8">
         <v>79</v>
       </c>
-      <c r="EE2" s="8">
-        <v>2</v>
-      </c>
-      <c r="EF2" s="8"/>
-      <c r="EG2" s="8">
-        <v>33</v>
-      </c>
+      <c r="EF2" s="8">
+        <v>2</v>
+      </c>
+      <c r="EG2" s="8"/>
       <c r="EH2" s="8">
-        <v>2</v>
-      </c>
-      <c r="EI2" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="EI2" s="8">
+        <v>2</v>
+      </c>
       <c r="EJ2" s="8"/>
       <c r="EK2" s="8"/>
-      <c r="EL2" s="8">
-        <v>49</v>
-      </c>
+      <c r="EL2" s="8"/>
       <c r="EM2" s="8">
+        <v>49</v>
+      </c>
+      <c r="EN2" s="8">
         <v>1.7</v>
       </c>
-      <c r="EN2" s="8">
+      <c r="EO2" s="8">
         <v>1.8</v>
       </c>
-      <c r="EO2" s="8">
+      <c r="EP2" s="8">
         <v>6.8</v>
       </c>
-      <c r="EP2" s="8">
+      <c r="EQ2" s="8">
         <v>1.7</v>
       </c>
-      <c r="EQ2" s="8"/>
       <c r="ER2" s="8"/>
       <c r="ES2" s="8"/>
-      <c r="ET2" s="8">
+      <c r="ET2" s="8"/>
+      <c r="EU2" s="8">
         <v>4</v>
       </c>
-      <c r="EU2" s="8"/>
-      <c r="EV2" s="9"/>
-      <c r="EW2" s="9">
+      <c r="EV2" s="8"/>
+      <c r="EW2" s="9"/>
+      <c r="EX2" s="9">
         <v>1.8</v>
       </c>
-      <c r="EX2" s="8"/>
-      <c r="EY2" s="8">
+      <c r="EY2" s="8"/>
+      <c r="EZ2" s="8">
         <v>6.8</v>
       </c>
-      <c r="EZ2" s="8">
+      <c r="FA2" s="8">
         <v>17</v>
       </c>
-      <c r="FA2" s="8"/>
       <c r="FB2" s="8"/>
-      <c r="FC2" s="8">
-        <v>23</v>
-      </c>
+      <c r="FC2" s="8"/>
       <c r="FD2" s="8">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="FE2" s="8">
+        <v>2</v>
+      </c>
+      <c r="FF2" s="8">
         <v>1.7</v>
       </c>
-      <c r="FF2" s="8">
-        <v>49</v>
-      </c>
       <c r="FG2" s="8">
+        <v>49</v>
+      </c>
+      <c r="FH2" s="8">
         <v>11</v>
       </c>
-      <c r="FH2" s="8">
+      <c r="FI2" s="8">
         <v>6.8</v>
       </c>
-      <c r="FI2" s="8"/>
-      <c r="FJ2" s="8">
-        <v>23</v>
-      </c>
+      <c r="FJ2" s="8"/>
       <c r="FK2" s="8">
+        <v>23</v>
+      </c>
+      <c r="FL2" s="8">
         <v>11</v>
       </c>
-      <c r="FL2" s="8">
-        <v>23</v>
-      </c>
       <c r="FM2" s="8">
+        <v>23</v>
+      </c>
+      <c r="FN2" s="8">
         <v>6.1</v>
       </c>
-      <c r="FN2" s="8"/>
       <c r="FO2" s="8"/>
-      <c r="FP2" s="8">
+      <c r="FP2" s="8"/>
+      <c r="FQ2" s="8">
         <v>1.7</v>
       </c>
-      <c r="FQ2" s="8"/>
-      <c r="FR2" s="8">
+      <c r="FR2" s="8"/>
+      <c r="FS2" s="8">
         <v>6.8</v>
       </c>
-      <c r="FS2" s="8"/>
-      <c r="FT2" s="8">
-        <v>2</v>
-      </c>
-      <c r="FU2" s="8"/>
-      <c r="FV2" s="8">
+      <c r="FT2" s="8"/>
+      <c r="FU2" s="8">
+        <v>2</v>
+      </c>
+      <c r="FV2" s="8"/>
+      <c r="FW2" s="8">
         <v>130</v>
       </c>
-      <c r="FW2" s="8"/>
       <c r="FX2" s="8"/>
-      <c r="FY2" s="8">
+      <c r="FY2" s="8"/>
+      <c r="FZ2" s="8">
         <v>1.7</v>
       </c>
-      <c r="FZ2" s="8">
-        <v>23</v>
-      </c>
-      <c r="GA2" s="8"/>
+      <c r="GA2" s="8">
+        <v>23</v>
+      </c>
       <c r="GB2" s="8"/>
       <c r="GC2" s="8"/>
-      <c r="GD2" s="8">
-        <v>33</v>
-      </c>
+      <c r="GD2" s="8"/>
       <c r="GE2" s="8">
-        <v>4.5</v>
+        <v>33</v>
       </c>
       <c r="GF2" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="GG2" s="8">
         <v>17</v>
       </c>
-      <c r="GG2" s="8">
-        <v>49</v>
-      </c>
       <c r="GH2" s="8">
+        <v>49</v>
+      </c>
+      <c r="GI2" s="8">
         <v>11</v>
       </c>
-      <c r="GI2" s="10">
-        <v>33</v>
-      </c>
-      <c r="GJ2" s="10"/>
+      <c r="GJ2" s="10">
+        <v>33</v>
+      </c>
       <c r="GK2" s="10"/>
-      <c r="GL2" s="10">
-        <v>4.5</v>
-      </c>
+      <c r="GL2" s="10"/>
       <c r="GM2" s="10">
-        <v>49</v>
+        <v>4.5</v>
       </c>
       <c r="GN2" s="10">
+        <v>49</v>
+      </c>
+      <c r="GO2" s="10">
         <v>11</v>
       </c>
-      <c r="GO2" s="10">
+      <c r="GP2" s="10">
         <v>17</v>
       </c>
-      <c r="GP2" s="10">
-        <v>13</v>
-      </c>
       <c r="GQ2" s="10">
+        <v>13</v>
+      </c>
+      <c r="GR2" s="10">
         <v>79</v>
       </c>
-      <c r="GR2" s="10">
+      <c r="GS2" s="10">
         <v>17</v>
       </c>
-      <c r="GS2" s="10">
+      <c r="GT2" s="10">
         <v>130</v>
       </c>
-      <c r="GT2" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="GU2" s="10"/>
-      <c r="GV2" s="10">
+      <c r="GU2" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="GV2" s="10"/>
+      <c r="GW2" s="10">
         <v>130</v>
       </c>
-      <c r="GW2" s="10">
+      <c r="GX2" s="10">
         <v>540</v>
       </c>
-      <c r="GX2" s="10">
-        <v>33</v>
-      </c>
       <c r="GY2" s="10">
         <v>33</v>
       </c>
       <c r="GZ2" s="10">
+        <v>33</v>
+      </c>
+      <c r="HA2" s="10">
         <v>1.7</v>
       </c>
-      <c r="HA2" s="10"/>
-      <c r="HB2" s="10">
-        <v>2</v>
-      </c>
+      <c r="HB2" s="10"/>
       <c r="HC2" s="10">
-        <v>13</v>
-      </c>
-      <c r="HD2" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="HD2" s="10">
+        <v>13</v>
+      </c>
       <c r="HE2" s="10"/>
       <c r="HF2" s="10"/>
       <c r="HG2" s="10"/>
@@ -2242,619 +2235,619 @@
       <c r="HJ2" s="10"/>
       <c r="HK2" s="10"/>
       <c r="HL2" s="10"/>
-      <c r="HM2" s="10">
-        <v>49</v>
-      </c>
+      <c r="HM2" s="10"/>
       <c r="HN2" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="HO2" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="HO2" s="10">
+        <v>4.5</v>
+      </c>
       <c r="HP2" s="10"/>
-      <c r="HR2" s="10"/>
-      <c r="HS2" s="2"/>
-      <c r="HT2" s="10"/>
+      <c r="HQ2" s="10"/>
+      <c r="HS2" s="10"/>
+      <c r="HT2" s="2"/>
       <c r="HU2" s="10"/>
       <c r="HV2" s="10"/>
       <c r="HW2" s="10"/>
-      <c r="HX2" s="10">
-        <v>7.8</v>
-      </c>
-      <c r="HY2" s="10"/>
+      <c r="HX2" s="10"/>
+      <c r="HY2" s="10">
+        <v>7.8</v>
+      </c>
       <c r="HZ2" s="10"/>
-      <c r="IA2" s="10">
-        <v>23</v>
-      </c>
+      <c r="IA2" s="10"/>
       <c r="IB2" s="10">
-        <v>2</v>
-      </c>
-      <c r="IC2" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="IC2" s="10">
+        <v>2</v>
+      </c>
       <c r="ID2" s="10"/>
       <c r="IE2" s="10"/>
       <c r="IF2" s="10"/>
       <c r="IG2" s="10"/>
-      <c r="IH2" s="10">
-        <v>23</v>
-      </c>
+      <c r="IH2" s="10"/>
       <c r="II2" s="10">
+        <v>23</v>
+      </c>
+      <c r="IJ2" s="10">
         <v>79</v>
-      </c>
-      <c r="IJ2" s="10">
-        <v>1.7</v>
       </c>
       <c r="IK2" s="10">
         <v>1.7</v>
       </c>
       <c r="IL2" s="10">
-        <v>23</v>
+        <v>1.7</v>
       </c>
       <c r="IM2" s="10">
+        <v>23</v>
+      </c>
+      <c r="IN2" s="10">
         <v>11</v>
       </c>
-      <c r="IN2" s="10"/>
       <c r="IO2" s="10"/>
       <c r="IP2" s="10"/>
       <c r="IQ2" s="10"/>
-      <c r="IR2" s="10">
-        <v>7.8</v>
-      </c>
-      <c r="IS2" s="10"/>
+      <c r="IR2" s="10"/>
+      <c r="IS2" s="10">
+        <v>7.8</v>
+      </c>
       <c r="IT2" s="10"/>
       <c r="IU2" s="10"/>
       <c r="IV2" s="10"/>
+      <c r="IW2" s="10"/>
     </row>
-    <row r="3" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+    <row r="3" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="7">
         <v>25</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
         <v>540</v>
       </c>
-      <c r="D3" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8">
+        <v>4.5</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="8">
-        <v>13</v>
-      </c>
+      <c r="H3" s="8"/>
       <c r="I3" s="8">
+        <v>13</v>
+      </c>
+      <c r="J3" s="8">
         <v>350</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>17</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L3" s="8">
         <v>21</v>
       </c>
-      <c r="L3" s="8">
+      <c r="M3" s="8">
         <v>11</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="8">
         <v>79</v>
       </c>
-      <c r="N3" s="8">
+      <c r="O3" s="8">
         <v>4</v>
       </c>
-      <c r="O3" s="8">
-        <v>2</v>
-      </c>
       <c r="P3" s="8">
         <v>2</v>
       </c>
       <c r="Q3" s="8">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="R3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="S3" s="8">
         <v>1.8</v>
       </c>
-      <c r="S3" s="8">
-        <v>4.5</v>
-      </c>
       <c r="T3" s="8">
         <v>4.5</v>
       </c>
       <c r="U3" s="8">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="V3" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="W3" s="8">
         <v>130</v>
       </c>
-      <c r="W3" s="8">
+      <c r="X3" s="8">
         <v>14</v>
       </c>
-      <c r="X3" s="8">
+      <c r="Y3" s="8">
         <v>17</v>
       </c>
-      <c r="Y3" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8">
-        <v>33</v>
-      </c>
+      <c r="Z3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AA3" s="8"/>
       <c r="AB3" s="8">
-        <v>7.8</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="8">
-        <v>49</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" s="8">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="8">
         <v>1.8</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AF3" s="8">
         <v>6.8</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AG3" s="8">
         <v>4</v>
       </c>
-      <c r="AG3" s="8">
-        <v>4.5</v>
-      </c>
       <c r="AH3" s="8">
-        <v>23</v>
+        <v>4.5</v>
       </c>
       <c r="AI3" s="8">
+        <v>23</v>
+      </c>
+      <c r="AJ3" s="8">
         <v>14</v>
       </c>
-      <c r="AJ3" s="8">
-        <v>49</v>
-      </c>
       <c r="AK3" s="8">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="AL3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="8">
         <v>240</v>
       </c>
-      <c r="AM3" s="8">
+      <c r="AN3" s="8">
         <v>17</v>
       </c>
-      <c r="AN3" s="8">
+      <c r="AO3" s="8">
         <v>79</v>
       </c>
-      <c r="AO3" s="8">
+      <c r="AP3" s="8">
         <v>110</v>
       </c>
-      <c r="AP3" s="8">
-        <v>49</v>
-      </c>
       <c r="AQ3" s="8">
-        <v>13</v>
-      </c>
-      <c r="AR3" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>13</v>
+      </c>
       <c r="AS3" s="8"/>
-      <c r="AT3" s="8">
-        <v>4.5</v>
-      </c>
+      <c r="AT3" s="8"/>
       <c r="AU3" s="8">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="AV3" s="8">
         <v>33</v>
       </c>
       <c r="AW3" s="8">
+        <v>33</v>
+      </c>
+      <c r="AX3" s="8">
         <v>6.8</v>
       </c>
-      <c r="AX3" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8">
-        <v>23</v>
-      </c>
+      <c r="AY3" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="AZ3" s="8"/>
       <c r="BA3" s="8">
+        <v>23</v>
+      </c>
+      <c r="BB3" s="8">
         <v>17</v>
       </c>
-      <c r="BB3" s="8">
+      <c r="BC3" s="8">
         <v>11</v>
       </c>
-      <c r="BC3" s="8"/>
       <c r="BD3" s="8"/>
-      <c r="BE3" s="8">
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8">
         <v>11</v>
       </c>
-      <c r="BF3" s="8">
-        <v>13</v>
-      </c>
       <c r="BG3" s="8">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="BH3" s="8">
         <v>46</v>
       </c>
       <c r="BI3" s="8">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="BJ3" s="8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="BK3" s="8">
+        <v>33</v>
+      </c>
+      <c r="BL3" s="8">
         <v>130</v>
       </c>
-      <c r="BL3" s="8">
-        <v>2</v>
-      </c>
       <c r="BM3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BN3" s="8">
         <v>130</v>
       </c>
-      <c r="BN3" s="8">
-        <v>33</v>
-      </c>
       <c r="BO3" s="8">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="BP3" s="8">
         <v>23</v>
       </c>
       <c r="BQ3" s="8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="BR3" s="8">
+        <v>13</v>
+      </c>
+      <c r="BS3" s="8">
         <v>11</v>
       </c>
-      <c r="BS3" s="8">
+      <c r="BT3" s="8">
         <v>240</v>
       </c>
-      <c r="BT3" s="8">
+      <c r="BU3" s="8">
         <v>79</v>
       </c>
-      <c r="BU3" s="8">
-        <v>2</v>
-      </c>
       <c r="BV3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW3" s="8">
         <v>22</v>
       </c>
-      <c r="BW3" s="8">
+      <c r="BX3" s="8">
         <v>130</v>
       </c>
-      <c r="BX3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BY3" s="8"/>
-      <c r="BZ3" s="8">
+      <c r="BY3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BZ3" s="8"/>
+      <c r="CA3" s="8">
         <v>1.7</v>
       </c>
-      <c r="CA3" s="8">
-        <v>2</v>
-      </c>
       <c r="CB3" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="CC3" s="8"/>
-      <c r="CD3" s="8">
-        <v>7.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="CC3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="CD3" s="8"/>
       <c r="CE3" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="CF3" s="8">
         <v>6.8</v>
       </c>
-      <c r="CF3" s="8">
-        <v>49</v>
-      </c>
       <c r="CG3" s="8">
+        <v>49</v>
+      </c>
+      <c r="CH3" s="8">
         <v>6.8</v>
       </c>
-      <c r="CH3" s="8">
+      <c r="CI3" s="8">
         <v>170</v>
       </c>
-      <c r="CI3" s="8">
-        <v>49</v>
-      </c>
       <c r="CJ3" s="8">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="CK3" s="8">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="CL3" s="8">
-        <v>33</v>
+        <v>7.8</v>
       </c>
       <c r="CM3" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="CN3" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="CN3" s="8">
+        <v>4.5</v>
+      </c>
       <c r="CO3" s="8"/>
-      <c r="CP3" s="8">
+      <c r="CP3" s="8"/>
+      <c r="CQ3" s="8">
         <v>540</v>
       </c>
-      <c r="CQ3" s="8">
+      <c r="CR3" s="8">
         <v>79</v>
       </c>
-      <c r="CR3" s="8">
-        <v>33</v>
-      </c>
       <c r="CS3" s="8">
+        <v>33</v>
+      </c>
+      <c r="CT3" s="8">
         <v>22</v>
       </c>
-      <c r="CT3" s="8">
-        <v>13</v>
-      </c>
-      <c r="CU3" s="8"/>
-      <c r="CV3" s="8">
-        <v>7.8</v>
-      </c>
+      <c r="CU3" s="8">
+        <v>13</v>
+      </c>
+      <c r="CV3" s="8"/>
       <c r="CW3" s="8">
-        <v>4.5</v>
+        <v>7.8</v>
       </c>
       <c r="CX3" s="8">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="CY3" s="8">
+        <v>13</v>
+      </c>
+      <c r="CZ3" s="8">
         <v>130</v>
       </c>
-      <c r="CZ3" s="8">
+      <c r="DA3" s="8">
         <v>46</v>
       </c>
-      <c r="DA3" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="DB3" s="8"/>
+      <c r="DB3" s="8">
+        <v>4.5</v>
+      </c>
       <c r="DC3" s="8"/>
-      <c r="DD3" s="8">
-        <v>2</v>
-      </c>
+      <c r="DD3" s="8"/>
       <c r="DE3" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="DF3" s="8"/>
-      <c r="DG3" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="DH3" s="8"/>
-      <c r="DI3" s="8">
-        <v>4.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="DF3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="DG3" s="8"/>
+      <c r="DH3" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="DI3" s="8"/>
       <c r="DJ3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="DK3" s="8">
         <v>17</v>
       </c>
-      <c r="DK3" s="8">
-        <v>4.5</v>
-      </c>
       <c r="DL3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="DM3" s="8">
         <v>170</v>
       </c>
-      <c r="DM3" s="8">
-        <v>13</v>
-      </c>
-      <c r="DN3" s="8"/>
-      <c r="DO3" s="8">
-        <v>13</v>
-      </c>
+      <c r="DN3" s="8">
+        <v>13</v>
+      </c>
+      <c r="DO3" s="8"/>
       <c r="DP3" s="8">
+        <v>13</v>
+      </c>
+      <c r="DQ3" s="8">
         <v>240</v>
       </c>
-      <c r="DQ3" s="8">
+      <c r="DR3" s="8">
         <v>11</v>
       </c>
-      <c r="DR3" s="8">
-        <v>33</v>
-      </c>
-      <c r="DS3" s="8"/>
-      <c r="DT3" s="8">
-        <v>4.5</v>
-      </c>
+      <c r="DS3" s="8">
+        <v>33</v>
+      </c>
+      <c r="DT3" s="8"/>
       <c r="DU3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="DV3" s="8">
         <v>34</v>
       </c>
-      <c r="DV3" s="8">
-        <v>2</v>
-      </c>
-      <c r="DW3" s="8"/>
-      <c r="DX3" s="8">
-        <v>13</v>
-      </c>
+      <c r="DW3" s="8">
+        <v>2</v>
+      </c>
+      <c r="DX3" s="8"/>
       <c r="DY3" s="8">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="DZ3" s="8">
+        <v>23</v>
+      </c>
+      <c r="EA3" s="8">
         <v>11</v>
       </c>
-      <c r="EA3" s="8">
+      <c r="EB3" s="8">
         <v>17</v>
       </c>
-      <c r="EB3" s="8">
-        <v>13</v>
-      </c>
       <c r="EC3" s="8">
+        <v>13</v>
+      </c>
+      <c r="ED3" s="8">
         <v>240</v>
       </c>
-      <c r="ED3" s="8">
+      <c r="EE3" s="8">
         <v>130</v>
       </c>
-      <c r="EE3" s="8">
+      <c r="EF3" s="8">
         <v>17</v>
       </c>
-      <c r="EF3" s="8"/>
-      <c r="EG3" s="8">
-        <v>13</v>
-      </c>
+      <c r="EG3" s="8"/>
       <c r="EH3" s="8">
-        <v>23</v>
-      </c>
-      <c r="EI3" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="EI3" s="8">
+        <v>23</v>
+      </c>
       <c r="EJ3" s="8"/>
       <c r="EK3" s="8"/>
-      <c r="EL3" s="8">
+      <c r="EL3" s="8"/>
+      <c r="EM3" s="8">
         <v>79</v>
       </c>
-      <c r="EM3" s="8">
-        <v>4.5</v>
-      </c>
       <c r="EN3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="EO3" s="8">
         <v>4</v>
       </c>
-      <c r="EO3" s="8">
-        <v>23</v>
-      </c>
       <c r="EP3" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="EQ3" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="EQ3" s="8">
+        <v>4.5</v>
+      </c>
       <c r="ER3" s="8"/>
       <c r="ES3" s="8"/>
-      <c r="ET3" s="8">
+      <c r="ET3" s="8"/>
+      <c r="EU3" s="8">
         <v>6.8</v>
       </c>
-      <c r="EU3" s="8"/>
-      <c r="EV3" s="9"/>
-      <c r="EW3" s="9">
-        <v>7.8</v>
-      </c>
-      <c r="EX3" s="8"/>
-      <c r="EY3" s="8">
-        <v>13</v>
-      </c>
+      <c r="EV3" s="8"/>
+      <c r="EW3" s="9"/>
+      <c r="EX3" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="EY3" s="8"/>
       <c r="EZ3" s="8">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="FA3" s="8">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="FB3" s="8">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="FC3" s="8">
+        <v>23</v>
+      </c>
+      <c r="FD3" s="8">
         <v>17</v>
       </c>
-      <c r="FD3" s="8">
-        <v>2</v>
-      </c>
-      <c r="FE3" s="8"/>
-      <c r="FF3" s="8">
+      <c r="FE3" s="8">
+        <v>2</v>
+      </c>
+      <c r="FF3" s="8"/>
+      <c r="FG3" s="8">
         <v>110</v>
       </c>
-      <c r="FG3" s="8">
-        <v>7.8</v>
-      </c>
       <c r="FH3" s="8">
         <v>7.8</v>
       </c>
-      <c r="FI3" s="8"/>
-      <c r="FJ3" s="8">
+      <c r="FI3" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="FJ3" s="8"/>
+      <c r="FK3" s="8">
         <v>70</v>
       </c>
-      <c r="FK3" s="8">
-        <v>13</v>
-      </c>
       <c r="FL3" s="8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="FM3" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="FN3" s="8"/>
-      <c r="FO3" s="8">
+        <v>33</v>
+      </c>
+      <c r="FN3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="FO3" s="8"/>
+      <c r="FP3" s="8">
         <v>240</v>
       </c>
-      <c r="FP3" s="8">
+      <c r="FQ3" s="8">
         <v>130</v>
       </c>
-      <c r="FQ3" s="8">
+      <c r="FR3" s="8">
         <v>17</v>
       </c>
-      <c r="FR3" s="8">
-        <v>7.8</v>
-      </c>
       <c r="FS3" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="FT3" s="8">
         <v>350</v>
       </c>
-      <c r="FT3" s="8">
+      <c r="FU3" s="8">
         <v>6.8</v>
       </c>
-      <c r="FU3" s="8"/>
-      <c r="FV3" s="8">
-        <v>23</v>
-      </c>
+      <c r="FV3" s="8"/>
       <c r="FW3" s="8">
+        <v>23</v>
+      </c>
+      <c r="FX3" s="8">
         <v>6.8</v>
       </c>
-      <c r="FX3" s="8">
-        <v>49</v>
-      </c>
       <c r="FY3" s="8">
+        <v>49</v>
+      </c>
+      <c r="FZ3" s="8">
         <v>17</v>
       </c>
-      <c r="FZ3" s="8">
-        <v>33</v>
-      </c>
-      <c r="GA3" s="8"/>
+      <c r="GA3" s="8">
+        <v>33</v>
+      </c>
       <c r="GB3" s="8"/>
       <c r="GC3" s="8"/>
-      <c r="GD3" s="8">
-        <v>23</v>
-      </c>
+      <c r="GD3" s="8"/>
       <c r="GE3" s="8">
+        <v>23</v>
+      </c>
+      <c r="GF3" s="8">
         <v>6.8</v>
       </c>
-      <c r="GF3" s="8">
+      <c r="GG3" s="8">
         <v>17</v>
       </c>
-      <c r="GG3" s="8">
-        <v>33</v>
-      </c>
       <c r="GH3" s="8">
         <v>33</v>
       </c>
-      <c r="GI3" s="10">
+      <c r="GI3" s="8">
+        <v>33</v>
+      </c>
+      <c r="GJ3" s="10">
         <v>79</v>
       </c>
-      <c r="GJ3" s="10">
+      <c r="GK3" s="10">
         <v>17</v>
       </c>
-      <c r="GK3" s="10">
-        <v>7.8</v>
-      </c>
       <c r="GL3" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="GM3" s="10">
         <v>540</v>
-      </c>
-      <c r="GM3" s="10">
-        <v>79</v>
       </c>
       <c r="GN3" s="10">
         <v>79</v>
       </c>
       <c r="GO3" s="10">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="GP3" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="GQ3" s="10">
+        <v>13</v>
+      </c>
+      <c r="GR3" s="10">
         <v>130</v>
       </c>
-      <c r="GR3" s="10">
-        <v>7.8</v>
-      </c>
       <c r="GS3" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="GT3" s="10">
         <v>540</v>
       </c>
-      <c r="GT3" s="10">
-        <v>13</v>
-      </c>
-      <c r="GU3" s="10"/>
-      <c r="GV3" s="10">
+      <c r="GU3" s="10">
+        <v>13</v>
+      </c>
+      <c r="GV3" s="10"/>
+      <c r="GW3" s="10">
         <v>920</v>
       </c>
-      <c r="GW3" s="10">
+      <c r="GX3" s="10">
         <v>540</v>
       </c>
-      <c r="GX3" s="10">
+      <c r="GY3" s="10">
         <v>170</v>
       </c>
-      <c r="GY3" s="10">
-        <v>33</v>
-      </c>
       <c r="GZ3" s="10">
-        <v>2</v>
-      </c>
-      <c r="HA3" s="10"/>
-      <c r="HB3" s="10">
+        <v>33</v>
+      </c>
+      <c r="HA3" s="10">
+        <v>2</v>
+      </c>
+      <c r="HB3" s="10"/>
+      <c r="HC3" s="10">
         <v>17</v>
       </c>
-      <c r="HC3" s="10">
-        <v>13</v>
-      </c>
-      <c r="HD3" s="10"/>
+      <c r="HD3" s="10">
+        <v>13</v>
+      </c>
       <c r="HE3" s="10"/>
       <c r="HF3" s="10"/>
       <c r="HG3" s="10"/>
@@ -2863,147 +2856,147 @@
       <c r="HJ3" s="10"/>
       <c r="HK3" s="10"/>
       <c r="HL3" s="10"/>
-      <c r="HM3" s="10">
+      <c r="HM3" s="10"/>
+      <c r="HN3" s="10">
         <v>240</v>
       </c>
-      <c r="HN3" s="10">
+      <c r="HO3" s="10">
         <v>6.8</v>
       </c>
-      <c r="HO3" s="10">
-        <v>13</v>
-      </c>
-      <c r="HP3" s="10"/>
+      <c r="HP3" s="10">
+        <v>13</v>
+      </c>
       <c r="HQ3" s="10"/>
       <c r="HR3" s="10"/>
       <c r="HS3" s="10"/>
       <c r="HT3" s="10"/>
       <c r="HU3" s="10"/>
-      <c r="HV3" s="10">
+      <c r="HV3" s="10"/>
+      <c r="HW3" s="10">
         <v>11</v>
       </c>
-      <c r="HW3" s="10"/>
       <c r="HX3" s="10"/>
       <c r="HY3" s="10"/>
       <c r="HZ3" s="10"/>
-      <c r="IA3" s="10">
-        <v>33</v>
-      </c>
-      <c r="IB3" s="10"/>
+      <c r="IA3" s="10"/>
+      <c r="IB3" s="10">
+        <v>33</v>
+      </c>
       <c r="IC3" s="10"/>
       <c r="ID3" s="10"/>
       <c r="IE3" s="10"/>
       <c r="IF3" s="10"/>
-      <c r="IG3" s="10">
+      <c r="IG3" s="10"/>
+      <c r="IH3" s="10">
         <v>22</v>
       </c>
-      <c r="IH3" s="10">
-        <v>49</v>
-      </c>
       <c r="II3" s="10">
+        <v>49</v>
+      </c>
+      <c r="IJ3" s="10">
         <v>79</v>
       </c>
-      <c r="IJ3" s="10">
+      <c r="IK3" s="10">
         <v>6.8</v>
       </c>
-      <c r="IK3" s="10">
-        <v>33</v>
-      </c>
       <c r="IL3" s="10">
-        <v>13</v>
-      </c>
-      <c r="IM3" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="IM3" s="10">
+        <v>13</v>
+      </c>
       <c r="IN3" s="10"/>
       <c r="IO3" s="10"/>
       <c r="IP3" s="10"/>
-      <c r="IQ3" s="10">
-        <v>2</v>
-      </c>
+      <c r="IQ3" s="10"/>
       <c r="IR3" s="10">
-        <v>13</v>
-      </c>
-      <c r="IS3" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="IS3" s="10">
+        <v>13</v>
+      </c>
       <c r="IT3" s="10"/>
       <c r="IU3" s="10"/>
-      <c r="IV3" s="10">
+      <c r="IV3" s="10"/>
+      <c r="IW3" s="10">
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="7">
         <v>20</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8">
-        <v>33</v>
-      </c>
+      <c r="C4" s="8"/>
       <c r="D4" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.5</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8">
-        <v>23</v>
-      </c>
+      <c r="J4" s="8"/>
       <c r="K4" s="8">
+        <v>23</v>
+      </c>
+      <c r="L4" s="8">
         <v>17</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8">
         <v>46</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8">
-        <v>4.5</v>
-      </c>
+      <c r="O4" s="8"/>
       <c r="P4" s="8">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" s="8">
         <v>2</v>
       </c>
       <c r="R4" s="8">
+        <v>2</v>
+      </c>
+      <c r="S4" s="8">
         <v>1.7</v>
       </c>
-      <c r="S4" s="8">
+      <c r="T4" s="8">
         <v>6.8</v>
       </c>
-      <c r="T4" s="8">
+      <c r="U4" s="8">
         <v>1.7</v>
       </c>
-      <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
-      <c r="Z4" s="8">
-        <v>49</v>
-      </c>
+      <c r="Z4" s="8"/>
       <c r="AA4" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="AD4" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8">
+        <v>7.8</v>
+      </c>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="8">
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8">
         <v>1.7</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AH4" s="8">
         <v>4</v>
       </c>
-      <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
-      <c r="AJ4" s="8">
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8">
         <v>17</v>
       </c>
-      <c r="AK4" s="8"/>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
@@ -3014,46 +3007,44 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
-      <c r="AV4" s="8">
-        <v>4.5</v>
-      </c>
+      <c r="AV4" s="8"/>
       <c r="AW4" s="8">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="AX4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY4" s="8">
         <v>1.7</v>
       </c>
-      <c r="AY4" s="8"/>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>
       <c r="BD4" s="8"/>
-      <c r="BE4" s="8">
-        <v>2</v>
-      </c>
+      <c r="BE4" s="8"/>
       <c r="BF4" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="8">
         <v>1.7</v>
       </c>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8">
-        <v>13</v>
-      </c>
-      <c r="BI4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8">
+        <v>13</v>
+      </c>
       <c r="BJ4" s="8"/>
       <c r="BK4" s="8"/>
       <c r="BL4" s="8"/>
-      <c r="BM4" s="8">
-        <v>33</v>
-      </c>
+      <c r="BM4" s="8"/>
       <c r="BN4" s="8">
+        <v>33</v>
+      </c>
+      <c r="BO4" s="8">
         <v>14</v>
       </c>
-      <c r="BO4" s="8">
+      <c r="BP4" s="8">
         <v>6.8</v>
-      </c>
-      <c r="BP4" s="8">
-        <v>1.7</v>
       </c>
       <c r="BQ4" s="8">
         <v>1.7</v>
@@ -3061,11 +3052,13 @@
       <c r="BR4" s="8">
         <v>1.7</v>
       </c>
-      <c r="BS4" s="8"/>
-      <c r="BT4" s="8">
-        <v>33</v>
-      </c>
-      <c r="BU4" s="8"/>
+      <c r="BS4" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="8">
+        <v>33</v>
+      </c>
       <c r="BV4" s="8"/>
       <c r="BW4" s="8"/>
       <c r="BX4" s="8"/>
@@ -3083,111 +3076,111 @@
       <c r="CJ4" s="8"/>
       <c r="CK4" s="8"/>
       <c r="CL4" s="8"/>
-      <c r="CM4" s="8">
+      <c r="CM4" s="8"/>
+      <c r="CN4" s="8">
         <v>4</v>
       </c>
-      <c r="CN4" s="8"/>
       <c r="CO4" s="8"/>
-      <c r="CP4" s="8">
+      <c r="CP4" s="8"/>
+      <c r="CQ4" s="8">
         <v>350</v>
       </c>
-      <c r="CQ4" s="8">
-        <v>33</v>
-      </c>
-      <c r="CR4" s="8"/>
+      <c r="CR4" s="8">
+        <v>33</v>
+      </c>
       <c r="CS4" s="8"/>
       <c r="CT4" s="8"/>
       <c r="CU4" s="8"/>
-      <c r="CV4" s="8">
-        <v>2</v>
-      </c>
-      <c r="CW4" s="8"/>
+      <c r="CV4" s="8"/>
+      <c r="CW4" s="8">
+        <v>2</v>
+      </c>
       <c r="CX4" s="8"/>
-      <c r="CY4" s="8">
-        <v>49</v>
-      </c>
+      <c r="CY4" s="8"/>
       <c r="CZ4" s="8">
+        <v>49</v>
+      </c>
+      <c r="DA4" s="8">
         <v>130</v>
       </c>
-      <c r="DA4" s="8">
-        <v>33</v>
-      </c>
-      <c r="DB4" s="8"/>
+      <c r="DB4" s="8">
+        <v>33</v>
+      </c>
       <c r="DC4" s="8"/>
       <c r="DD4" s="8"/>
       <c r="DE4" s="8"/>
       <c r="DF4" s="8"/>
-      <c r="DG4" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="DH4" s="8"/>
+      <c r="DG4" s="8"/>
+      <c r="DH4" s="8">
+        <v>7.8</v>
+      </c>
       <c r="DI4" s="8"/>
       <c r="DJ4" s="8"/>
-      <c r="DK4" s="8">
-        <v>49</v>
-      </c>
+      <c r="DK4" s="8"/>
       <c r="DL4" s="8">
+        <v>49</v>
+      </c>
+      <c r="DM4" s="8">
         <v>170</v>
       </c>
-      <c r="DM4" s="8"/>
       <c r="DN4" s="8"/>
       <c r="DO4" s="8"/>
       <c r="DP4" s="8"/>
       <c r="DQ4" s="8"/>
-      <c r="DR4" s="8">
-        <v>2</v>
-      </c>
-      <c r="DS4" s="8"/>
+      <c r="DR4" s="8"/>
+      <c r="DS4" s="8">
+        <v>2</v>
+      </c>
       <c r="DT4" s="8"/>
       <c r="DU4" s="8"/>
       <c r="DV4" s="8"/>
       <c r="DW4" s="8"/>
-      <c r="DX4" s="8">
+      <c r="DX4" s="8"/>
+      <c r="DY4" s="8">
         <v>1.7</v>
       </c>
-      <c r="DY4" s="8"/>
       <c r="DZ4" s="8"/>
       <c r="EA4" s="8"/>
       <c r="EB4" s="8"/>
-      <c r="EC4" s="8">
+      <c r="EC4" s="8"/>
+      <c r="ED4" s="8">
         <v>130</v>
       </c>
-      <c r="ED4" s="8">
-        <v>23</v>
-      </c>
       <c r="EE4" s="8">
-        <v>49</v>
-      </c>
-      <c r="EF4" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="EF4" s="8">
+        <v>49</v>
+      </c>
       <c r="EG4" s="8"/>
       <c r="EH4" s="8"/>
       <c r="EI4" s="8"/>
       <c r="EJ4" s="8"/>
       <c r="EK4" s="8"/>
-      <c r="EL4" s="8">
+      <c r="EL4" s="8"/>
+      <c r="EM4" s="8">
         <v>130</v>
       </c>
-      <c r="EM4" s="8">
-        <v>4.5</v>
-      </c>
       <c r="EN4" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="EO4" s="8">
         <v>1.7</v>
       </c>
-      <c r="EO4" s="8"/>
       <c r="EP4" s="8"/>
       <c r="EQ4" s="8"/>
       <c r="ER4" s="8"/>
       <c r="ES4" s="8"/>
       <c r="ET4" s="8"/>
       <c r="EU4" s="8"/>
-      <c r="EV4" s="9"/>
+      <c r="EV4" s="8"/>
       <c r="EW4" s="9"/>
-      <c r="EX4" s="8"/>
+      <c r="EX4" s="9"/>
       <c r="EY4" s="8"/>
-      <c r="EZ4" s="8">
-        <v>33</v>
-      </c>
-      <c r="FA4" s="8"/>
+      <c r="EZ4" s="8"/>
+      <c r="FA4" s="8">
+        <v>33</v>
+      </c>
       <c r="FB4" s="8"/>
       <c r="FC4" s="8"/>
       <c r="FD4" s="8"/>
@@ -3195,23 +3188,23 @@
       <c r="FF4" s="8"/>
       <c r="FG4" s="8"/>
       <c r="FH4" s="8"/>
-      <c r="FI4" s="8">
+      <c r="FI4" s="8"/>
+      <c r="FJ4" s="8">
         <v>170</v>
       </c>
-      <c r="FJ4" s="8"/>
-      <c r="FK4" s="8">
-        <v>2</v>
-      </c>
-      <c r="FL4" s="8"/>
+      <c r="FK4" s="8"/>
+      <c r="FL4" s="8">
+        <v>2</v>
+      </c>
       <c r="FM4" s="8"/>
       <c r="FN4" s="8"/>
-      <c r="FO4" s="8">
+      <c r="FO4" s="8"/>
+      <c r="FP4" s="8">
         <v>350</v>
       </c>
-      <c r="FP4" s="8">
+      <c r="FQ4" s="8">
         <v>11</v>
       </c>
-      <c r="FQ4" s="8"/>
       <c r="FR4" s="8"/>
       <c r="FS4" s="8"/>
       <c r="FT4" s="8"/>
@@ -3224,58 +3217,58 @@
       <c r="GA4" s="8"/>
       <c r="GB4" s="8"/>
       <c r="GC4" s="8"/>
-      <c r="GD4" s="8">
+      <c r="GD4" s="8"/>
+      <c r="GE4" s="8">
         <v>31</v>
       </c>
-      <c r="GE4" s="8">
+      <c r="GF4" s="8">
         <v>17</v>
       </c>
-      <c r="GF4" s="8"/>
-      <c r="GG4" s="8">
-        <v>23</v>
-      </c>
+      <c r="GG4" s="8"/>
       <c r="GH4" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="GI4" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="GI4" s="8">
+        <v>4.5</v>
+      </c>
       <c r="GJ4" s="10"/>
       <c r="GK4" s="10"/>
-      <c r="GL4" s="10">
+      <c r="GL4" s="10"/>
+      <c r="GM4" s="10">
         <v>350</v>
       </c>
-      <c r="GM4" s="10">
-        <v>13</v>
-      </c>
       <c r="GN4" s="10">
         <v>13</v>
       </c>
-      <c r="GO4" s="10"/>
-      <c r="GP4" s="10">
-        <v>13</v>
-      </c>
-      <c r="GQ4" s="10"/>
+      <c r="GO4" s="10">
+        <v>13</v>
+      </c>
+      <c r="GP4" s="10"/>
+      <c r="GQ4" s="10">
+        <v>13</v>
+      </c>
       <c r="GR4" s="10"/>
       <c r="GS4" s="10"/>
-      <c r="GT4" s="10">
+      <c r="GT4" s="10"/>
+      <c r="GU4" s="10">
         <v>6.8</v>
       </c>
-      <c r="GU4" s="10"/>
-      <c r="GV4" s="10">
+      <c r="GV4" s="10"/>
+      <c r="GW4" s="10">
         <v>79</v>
       </c>
-      <c r="GW4" s="10">
+      <c r="GX4" s="10">
         <v>130</v>
       </c>
-      <c r="GX4" s="10">
+      <c r="GY4" s="10">
         <v>110</v>
       </c>
-      <c r="GY4" s="10">
+      <c r="GZ4" s="10">
         <v>14</v>
       </c>
-      <c r="GZ4" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="HA4" s="10"/>
+      <c r="HA4" s="10">
+        <v>4.5</v>
+      </c>
       <c r="HB4" s="10"/>
       <c r="HC4" s="10"/>
       <c r="HD4" s="10"/>
@@ -3301,801 +3294,801 @@
       <c r="HX4" s="10"/>
       <c r="HY4" s="10"/>
       <c r="HZ4" s="10"/>
-      <c r="IA4" s="10">
-        <v>33</v>
-      </c>
+      <c r="IA4" s="10"/>
       <c r="IB4" s="10">
-        <v>13</v>
-      </c>
-      <c r="IC4" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="IC4" s="10">
+        <v>13</v>
+      </c>
       <c r="ID4" s="10"/>
       <c r="IE4" s="10"/>
       <c r="IF4" s="10"/>
       <c r="IG4" s="10"/>
-      <c r="IH4" s="10">
-        <v>13</v>
-      </c>
+      <c r="IH4" s="10"/>
       <c r="II4" s="10">
+        <v>13</v>
+      </c>
+      <c r="IJ4" s="10">
         <v>240</v>
       </c>
-      <c r="IJ4" s="10">
-        <v>49</v>
-      </c>
       <c r="IK4" s="10">
+        <v>49</v>
+      </c>
+      <c r="IL4" s="10">
         <v>130</v>
       </c>
-      <c r="IL4" s="10">
-        <v>7.8</v>
-      </c>
-      <c r="IM4" s="10"/>
+      <c r="IM4" s="10">
+        <v>7.8</v>
+      </c>
       <c r="IN4" s="10"/>
       <c r="IO4" s="10"/>
       <c r="IP4" s="10"/>
       <c r="IQ4" s="10"/>
-      <c r="IR4" s="10">
-        <v>2</v>
-      </c>
-      <c r="IS4" s="10"/>
+      <c r="IR4" s="10"/>
+      <c r="IS4" s="10">
+        <v>2</v>
+      </c>
       <c r="IT4" s="10"/>
       <c r="IU4" s="10"/>
       <c r="IV4" s="10"/>
+      <c r="IW4" s="10"/>
     </row>
-    <row r="5" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+    <row r="5" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="7">
         <v>16</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
         <v>130</v>
       </c>
-      <c r="D5" s="8">
-        <v>23</v>
-      </c>
       <c r="E5" s="8">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F5" s="8">
+        <v>49</v>
+      </c>
+      <c r="G5" s="8">
         <v>17</v>
       </c>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
       <c r="H5" s="8">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="I5" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="J5" s="8">
         <v>130</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>46</v>
       </c>
-      <c r="K5" s="8">
-        <v>23</v>
-      </c>
       <c r="L5" s="8">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="M5" s="8">
+        <v>2</v>
+      </c>
+      <c r="N5" s="8">
         <v>240</v>
       </c>
-      <c r="N5" s="8">
+      <c r="O5" s="8">
         <v>1.7</v>
       </c>
-      <c r="O5" s="8">
-        <v>4.5</v>
-      </c>
       <c r="P5" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="Q5" s="8">
         <v>1.7</v>
       </c>
-      <c r="Q5" s="8">
-        <v>2</v>
-      </c>
       <c r="R5" s="8">
+        <v>2</v>
+      </c>
+      <c r="S5" s="8">
         <v>6.1</v>
       </c>
-      <c r="S5" s="8">
-        <v>13</v>
-      </c>
       <c r="T5" s="8">
+        <v>13</v>
+      </c>
+      <c r="U5" s="8">
         <v>6.8</v>
       </c>
-      <c r="U5" s="8">
-        <v>13</v>
-      </c>
       <c r="V5" s="8">
+        <v>13</v>
+      </c>
+      <c r="W5" s="8">
         <v>350</v>
       </c>
-      <c r="W5" s="8">
-        <v>33</v>
-      </c>
       <c r="X5" s="8">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="8">
         <v>140</v>
       </c>
-      <c r="Y5" s="8">
-        <v>13</v>
-      </c>
       <c r="Z5" s="8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="AA5" s="8">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AB5" s="8">
+        <v>23</v>
+      </c>
+      <c r="AC5" s="8">
         <v>4</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AD5" s="8">
         <v>11</v>
       </c>
-      <c r="AD5" s="8">
-        <v>2</v>
-      </c>
       <c r="AE5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="8">
         <v>17</v>
       </c>
-      <c r="AF5" s="8">
-        <v>7.8</v>
-      </c>
       <c r="AG5" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="AH5" s="8">
         <v>17</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AI5" s="8">
         <v>27</v>
       </c>
-      <c r="AI5" s="8">
-        <v>4.5</v>
-      </c>
       <c r="AJ5" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AK5" s="8">
         <v>79</v>
       </c>
-      <c r="AK5" s="8">
+      <c r="AL5" s="8">
         <v>6.1</v>
       </c>
-      <c r="AL5" s="8">
+      <c r="AM5" s="8">
         <v>350</v>
       </c>
-      <c r="AM5" s="8">
-        <v>33</v>
-      </c>
       <c r="AN5" s="8">
+        <v>33</v>
+      </c>
+      <c r="AO5" s="8">
         <v>110</v>
       </c>
-      <c r="AO5" s="8">
+      <c r="AP5" s="8">
         <v>130</v>
       </c>
-      <c r="AP5" s="8">
+      <c r="AQ5" s="8">
         <v>22</v>
       </c>
-      <c r="AQ5" s="8">
+      <c r="AR5" s="8">
         <v>70</v>
       </c>
-      <c r="AR5" s="8">
-        <v>33</v>
-      </c>
       <c r="AS5" s="8">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AT5" s="8">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="AU5" s="8">
-        <v>23</v>
+        <v>7.8</v>
       </c>
       <c r="AV5" s="8">
+        <v>23</v>
+      </c>
+      <c r="AW5" s="8">
         <v>130</v>
       </c>
-      <c r="AW5" s="8">
-        <v>7.8</v>
-      </c>
       <c r="AX5" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="AY5" s="8">
         <v>1.7</v>
       </c>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8">
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8">
         <v>130</v>
       </c>
-      <c r="BA5" s="8">
-        <v>13</v>
-      </c>
       <c r="BB5" s="8">
+        <v>13</v>
+      </c>
+      <c r="BC5" s="8">
         <v>11</v>
       </c>
-      <c r="BC5" s="8">
-        <v>33</v>
-      </c>
       <c r="BD5" s="8">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="BE5" s="8">
+        <v>49</v>
+      </c>
+      <c r="BF5" s="8">
         <v>6.8</v>
       </c>
-      <c r="BF5" s="8">
-        <v>4.5</v>
-      </c>
       <c r="BG5" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="BH5" s="8">
         <v>17</v>
       </c>
-      <c r="BH5" s="8">
+      <c r="BI5" s="8">
         <v>350</v>
       </c>
-      <c r="BI5" s="8">
-        <v>13</v>
-      </c>
       <c r="BJ5" s="8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="BK5" s="8">
+        <v>33</v>
+      </c>
+      <c r="BL5" s="8">
         <v>130</v>
       </c>
-      <c r="BL5" s="8">
+      <c r="BM5" s="8">
         <v>4</v>
       </c>
-      <c r="BM5" s="8">
+      <c r="BN5" s="8">
         <v>79</v>
       </c>
-      <c r="BN5" s="8">
-        <v>49</v>
-      </c>
       <c r="BO5" s="8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="BP5" s="8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="BQ5" s="8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="BR5" s="8">
+        <v>33</v>
+      </c>
+      <c r="BS5" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="BS5" s="8">
-        <v>33</v>
-      </c>
       <c r="BT5" s="8">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="BU5" s="8">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="BV5" s="8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="BW5" s="8">
-        <v>23</v>
-      </c>
-      <c r="BX5" s="8"/>
-      <c r="BY5" s="8">
-        <v>13</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="BX5" s="8">
+        <v>23</v>
+      </c>
+      <c r="BY5" s="8"/>
       <c r="BZ5" s="8">
+        <v>13</v>
+      </c>
+      <c r="CA5" s="8">
         <v>17</v>
       </c>
-      <c r="CA5" s="8">
-        <v>13</v>
-      </c>
       <c r="CB5" s="8">
+        <v>13</v>
+      </c>
+      <c r="CC5" s="8">
         <v>22</v>
       </c>
-      <c r="CC5" s="8"/>
-      <c r="CD5" s="8">
+      <c r="CD5" s="8"/>
+      <c r="CE5" s="8">
         <v>17</v>
       </c>
-      <c r="CE5" s="8">
-        <v>23</v>
-      </c>
       <c r="CF5" s="8">
+        <v>23</v>
+      </c>
+      <c r="CG5" s="8">
         <v>240</v>
       </c>
-      <c r="CG5" s="8">
-        <v>13</v>
-      </c>
       <c r="CH5" s="8">
+        <v>13</v>
+      </c>
+      <c r="CI5" s="8">
         <v>540</v>
       </c>
-      <c r="CI5" s="8">
+      <c r="CJ5" s="8">
         <v>70</v>
       </c>
-      <c r="CJ5" s="8">
-        <v>49</v>
-      </c>
       <c r="CK5" s="8">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="CL5" s="8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="CM5" s="8">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="CN5" s="8">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="CO5" s="8">
         <v>33</v>
       </c>
       <c r="CP5" s="8">
+        <v>33</v>
+      </c>
+      <c r="CQ5" s="8">
         <v>350</v>
       </c>
-      <c r="CQ5" s="8">
+      <c r="CR5" s="8">
         <v>170</v>
       </c>
-      <c r="CR5" s="8">
-        <v>49</v>
-      </c>
       <c r="CS5" s="8">
+        <v>49</v>
+      </c>
+      <c r="CT5" s="8">
         <v>14</v>
       </c>
-      <c r="CT5" s="8">
+      <c r="CU5" s="8">
         <v>17</v>
       </c>
-      <c r="CU5" s="8"/>
-      <c r="CV5" s="8">
-        <v>13</v>
-      </c>
+      <c r="CV5" s="8"/>
       <c r="CW5" s="8">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="CX5" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="CY5" s="8">
         <v>22</v>
       </c>
-      <c r="CY5" s="8"/>
-      <c r="CZ5" s="8">
+      <c r="CZ5" s="8"/>
+      <c r="DA5" s="8">
         <v>130</v>
       </c>
-      <c r="DA5" s="8">
-        <v>23</v>
-      </c>
       <c r="DB5" s="8">
+        <v>23</v>
+      </c>
+      <c r="DC5" s="8">
         <v>130</v>
       </c>
-      <c r="DC5" s="8">
+      <c r="DD5" s="8">
         <v>6.8</v>
       </c>
-      <c r="DD5" s="8">
-        <v>13</v>
-      </c>
       <c r="DE5" s="8">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="DF5" s="8">
-        <v>4.5</v>
+        <v>49</v>
       </c>
       <c r="DG5" s="8">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="DH5" s="8">
+        <v>2</v>
+      </c>
+      <c r="DI5" s="8">
         <v>170</v>
       </c>
-      <c r="DI5" s="8">
-        <v>13</v>
-      </c>
       <c r="DJ5" s="8">
+        <v>13</v>
+      </c>
+      <c r="DK5" s="8">
         <v>130</v>
       </c>
-      <c r="DK5" s="8">
+      <c r="DL5" s="8">
         <v>79</v>
       </c>
-      <c r="DL5" s="8">
+      <c r="DM5" s="8">
         <v>170</v>
       </c>
-      <c r="DM5" s="8">
-        <v>13</v>
-      </c>
       <c r="DN5" s="8">
+        <v>13</v>
+      </c>
+      <c r="DO5" s="8">
         <v>350</v>
       </c>
-      <c r="DO5" s="8">
-        <v>33</v>
-      </c>
       <c r="DP5" s="8">
+        <v>33</v>
+      </c>
+      <c r="DQ5" s="8">
         <v>170</v>
       </c>
-      <c r="DQ5" s="8">
+      <c r="DR5" s="8">
         <v>17</v>
       </c>
-      <c r="DR5" s="8">
+      <c r="DS5" s="8">
         <v>46</v>
       </c>
-      <c r="DS5" s="8">
-        <v>4.5</v>
-      </c>
       <c r="DT5" s="8">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="DU5" s="8">
+        <v>33</v>
+      </c>
+      <c r="DV5" s="8">
         <v>17</v>
       </c>
-      <c r="DV5" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="DW5" s="8"/>
-      <c r="DX5" s="8">
-        <v>23</v>
-      </c>
+      <c r="DW5" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="DX5" s="8"/>
       <c r="DY5" s="8">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="DZ5" s="8">
+        <v>33</v>
+      </c>
+      <c r="EA5" s="8">
         <v>70</v>
       </c>
-      <c r="EA5" s="8">
+      <c r="EB5" s="8">
         <v>79</v>
       </c>
-      <c r="EB5" s="8">
+      <c r="EC5" s="8">
         <v>17</v>
       </c>
-      <c r="EC5" s="8">
+      <c r="ED5" s="8">
         <v>79</v>
       </c>
-      <c r="ED5" s="8"/>
-      <c r="EE5" s="8">
+      <c r="EE5" s="8"/>
+      <c r="EF5" s="8">
         <v>46</v>
       </c>
-      <c r="EF5" s="8">
+      <c r="EG5" s="8">
         <v>17</v>
       </c>
-      <c r="EG5" s="8">
+      <c r="EH5" s="8">
         <v>170</v>
       </c>
-      <c r="EH5" s="8">
+      <c r="EI5" s="8">
         <v>79</v>
       </c>
-      <c r="EI5" s="8">
-        <v>49</v>
-      </c>
       <c r="EJ5" s="8">
+        <v>49</v>
+      </c>
+      <c r="EK5" s="8">
         <v>79</v>
       </c>
-      <c r="EK5" s="8">
+      <c r="EL5" s="8">
         <v>22</v>
       </c>
-      <c r="EL5" s="8">
+      <c r="EM5" s="8">
         <v>540</v>
       </c>
-      <c r="EM5" s="8">
+      <c r="EN5" s="8">
         <v>11</v>
       </c>
-      <c r="EN5" s="8">
-        <v>4.5</v>
-      </c>
       <c r="EO5" s="8">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="EP5" s="8">
+        <v>33</v>
+      </c>
+      <c r="EQ5" s="8">
         <v>27</v>
       </c>
-      <c r="EQ5" s="8">
-        <v>4.5</v>
-      </c>
       <c r="ER5" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="ES5" s="8">
         <v>79</v>
       </c>
-      <c r="ES5" s="8">
-        <v>2</v>
-      </c>
       <c r="ET5" s="8">
+        <v>2</v>
+      </c>
+      <c r="EU5" s="8">
         <v>17</v>
       </c>
-      <c r="EU5" s="8">
+      <c r="EV5" s="8">
         <v>130</v>
       </c>
-      <c r="EV5" s="8">
+      <c r="EW5" s="8">
         <v>4</v>
       </c>
-      <c r="EW5" s="9">
+      <c r="EX5" s="9">
         <v>1.7</v>
       </c>
-      <c r="EX5" s="8">
+      <c r="EY5" s="8">
         <v>130</v>
       </c>
-      <c r="EY5" s="8">
-        <v>13</v>
-      </c>
-      <c r="EZ5" s="8"/>
-      <c r="FA5" s="8">
+      <c r="EZ5" s="8">
+        <v>13</v>
+      </c>
+      <c r="FA5" s="8"/>
+      <c r="FB5" s="8">
         <v>4</v>
       </c>
-      <c r="FB5" s="8">
+      <c r="FC5" s="8">
         <v>79</v>
       </c>
-      <c r="FC5" s="8">
+      <c r="FD5" s="8">
         <v>17</v>
       </c>
-      <c r="FD5" s="8">
-        <v>7.8</v>
-      </c>
       <c r="FE5" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="FF5" s="8">
         <v>11</v>
       </c>
-      <c r="FF5" s="8">
+      <c r="FG5" s="8">
         <v>240</v>
       </c>
-      <c r="FG5" s="8">
+      <c r="FH5" s="8">
         <v>79</v>
       </c>
-      <c r="FH5" s="8">
+      <c r="FI5" s="8">
         <v>1.8</v>
       </c>
-      <c r="FI5" s="8"/>
-      <c r="FJ5" s="8">
+      <c r="FJ5" s="8"/>
+      <c r="FK5" s="8">
         <v>130</v>
       </c>
-      <c r="FK5" s="8">
+      <c r="FL5" s="8">
         <v>22</v>
       </c>
-      <c r="FL5" s="8">
-        <v>33</v>
-      </c>
       <c r="FM5" s="8">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="FN5" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="FO5" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="FO5" s="8">
+        <v>4.5</v>
+      </c>
       <c r="FP5" s="8"/>
-      <c r="FQ5" s="8">
+      <c r="FQ5" s="8"/>
+      <c r="FR5" s="8">
         <v>17</v>
       </c>
-      <c r="FR5" s="8">
+      <c r="FS5" s="8">
         <v>11</v>
       </c>
-      <c r="FS5" s="8">
+      <c r="FT5" s="8">
         <v>540</v>
       </c>
-      <c r="FT5" s="8">
-        <v>49</v>
-      </c>
       <c r="FU5" s="8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="FV5" s="8">
+        <v>23</v>
+      </c>
+      <c r="FW5" s="8">
         <v>27</v>
       </c>
-      <c r="FW5" s="8">
+      <c r="FX5" s="8">
         <v>17</v>
       </c>
-      <c r="FX5" s="8">
+      <c r="FY5" s="8">
         <v>130</v>
       </c>
-      <c r="FY5" s="8">
+      <c r="FZ5" s="8">
         <v>6.8</v>
       </c>
-      <c r="FZ5" s="8">
+      <c r="GA5" s="8">
         <v>170</v>
       </c>
-      <c r="GA5" s="8">
-        <v>23</v>
-      </c>
       <c r="GB5" s="8">
         <v>23</v>
       </c>
       <c r="GC5" s="8">
-        <v>2</v>
-      </c>
-      <c r="GD5" s="8"/>
-      <c r="GE5" s="8">
-        <v>7.8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="GD5" s="8">
+        <v>2</v>
+      </c>
+      <c r="GE5" s="8"/>
       <c r="GF5" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="GG5" s="8">
         <v>46</v>
       </c>
-      <c r="GG5" s="8">
-        <v>23</v>
-      </c>
       <c r="GH5" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="GI5" s="10">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="GI5" s="8">
+        <v>7.8</v>
       </c>
       <c r="GJ5" s="10">
         <v>33</v>
       </c>
       <c r="GK5" s="10">
-        <v>7.8</v>
+        <v>33</v>
       </c>
       <c r="GL5" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="GM5" s="10">
         <v>1700</v>
       </c>
-      <c r="GM5" s="10">
-        <v>49</v>
-      </c>
       <c r="GN5" s="10">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="GO5" s="10">
+        <v>33</v>
+      </c>
+      <c r="GP5" s="10">
         <v>6.8</v>
       </c>
-      <c r="GP5" s="10"/>
       <c r="GQ5" s="10"/>
       <c r="GR5" s="10"/>
-      <c r="GS5" s="10">
+      <c r="GS5" s="10"/>
+      <c r="GT5" s="10">
         <v>920</v>
       </c>
-      <c r="GT5" s="10">
-        <v>33</v>
-      </c>
       <c r="GU5" s="10">
+        <v>33</v>
+      </c>
+      <c r="GV5" s="10">
         <v>1.8</v>
       </c>
-      <c r="GV5" s="10">
+      <c r="GW5" s="10">
         <v>540</v>
       </c>
-      <c r="GW5" s="10"/>
-      <c r="GX5" s="10">
-        <v>49</v>
-      </c>
+      <c r="GX5" s="10"/>
       <c r="GY5" s="10">
         <v>49</v>
       </c>
       <c r="GZ5" s="10">
+        <v>49</v>
+      </c>
+      <c r="HA5" s="10">
         <v>22</v>
       </c>
-      <c r="HA5" s="10">
-        <v>7.8</v>
-      </c>
       <c r="HB5" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="HC5" s="10">
         <v>240</v>
       </c>
-      <c r="HC5" s="10">
-        <v>49</v>
-      </c>
       <c r="HD5" s="10">
         <v>49</v>
       </c>
       <c r="HE5" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="HF5" s="10">
+        <v>13</v>
+      </c>
+      <c r="HG5" s="10">
         <v>79</v>
       </c>
-      <c r="HG5" s="10">
-        <v>49</v>
-      </c>
       <c r="HH5" s="10">
         <v>49</v>
       </c>
       <c r="HI5" s="10">
-        <v>4.5</v>
+        <v>49</v>
       </c>
       <c r="HJ5" s="10">
-        <v>23</v>
+        <v>4.5</v>
       </c>
       <c r="HK5" s="10">
-        <v>4.5</v>
+        <v>23</v>
       </c>
       <c r="HL5" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="HM5" s="10">
         <v>540</v>
       </c>
-      <c r="HM5" s="10">
+      <c r="HN5" s="10">
         <v>170</v>
       </c>
-      <c r="HN5" s="10">
-        <v>7.8</v>
-      </c>
       <c r="HO5" s="10">
-        <v>49</v>
+        <v>7.8</v>
       </c>
       <c r="HP5" s="10">
+        <v>49</v>
+      </c>
+      <c r="HQ5" s="10">
         <v>17</v>
       </c>
-      <c r="HQ5" s="10">
+      <c r="HR5" s="10">
         <v>11</v>
       </c>
-      <c r="HR5" s="10">
-        <v>13</v>
-      </c>
       <c r="HS5" s="10">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="HT5" s="10">
-        <v>23</v>
+        <v>7.8</v>
       </c>
       <c r="HU5" s="10">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="HV5" s="10">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="HW5" s="10">
-        <v>7.8</v>
+        <v>33</v>
       </c>
       <c r="HX5" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="HY5" s="10">
         <v>79</v>
       </c>
-      <c r="HY5" s="10">
+      <c r="HZ5" s="10">
         <v>27</v>
       </c>
-      <c r="HZ5" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="IA5" s="10"/>
-      <c r="IB5" s="10">
+      <c r="IA5" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="IB5" s="10"/>
+      <c r="IC5" s="10">
         <v>17</v>
       </c>
-      <c r="IC5" s="10">
-        <v>49</v>
-      </c>
       <c r="ID5" s="10">
+        <v>49</v>
+      </c>
+      <c r="IE5" s="10">
         <v>22</v>
       </c>
-      <c r="IE5" s="10">
-        <v>13</v>
-      </c>
       <c r="IF5" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="IG5" s="10">
         <v>23</v>
       </c>
       <c r="IH5" s="10">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="II5" s="10">
         <v>240</v>
       </c>
       <c r="IJ5" s="10">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="IK5" s="10">
+        <v>23</v>
+      </c>
+      <c r="IL5" s="10">
         <v>130</v>
       </c>
-      <c r="IL5" s="10">
-        <v>7.8</v>
-      </c>
-      <c r="IM5" s="10"/>
-      <c r="IN5" s="10">
-        <v>13</v>
-      </c>
+      <c r="IM5" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="IN5" s="10"/>
       <c r="IO5" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="IP5" s="10">
-        <v>4.5</v>
+        <v>49</v>
       </c>
       <c r="IQ5" s="10">
-        <v>23</v>
-      </c>
-      <c r="IR5" s="10"/>
-      <c r="IS5" s="10">
-        <v>49</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="IR5" s="10">
+        <v>23</v>
+      </c>
+      <c r="IS5" s="10"/>
       <c r="IT5" s="10">
+        <v>49</v>
+      </c>
+      <c r="IU5" s="10">
         <v>1.7</v>
       </c>
-      <c r="IU5" s="10">
+      <c r="IV5" s="10">
         <v>17</v>
       </c>
-      <c r="IV5" s="10">
+      <c r="IW5" s="10">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+    <row r="6" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
-        <v>13</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <v>23</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
         <v>240</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>79</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8">
         <v>4.8</v>
       </c>
-      <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -4112,15 +4105,15 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
-      <c r="AD6" s="8">
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8">
         <v>11</v>
       </c>
-      <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
-      <c r="AG6" s="8">
-        <v>23</v>
-      </c>
-      <c r="AH6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8">
+        <v>23</v>
+      </c>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
@@ -4130,13 +4123,13 @@
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
-      <c r="AR6" s="8">
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8">
         <v>79</v>
       </c>
-      <c r="AS6" s="8">
+      <c r="AT6" s="8">
         <v>6.8</v>
       </c>
-      <c r="AT6" s="8"/>
       <c r="AU6" s="8"/>
       <c r="AV6" s="8"/>
       <c r="AW6" s="8"/>
@@ -4242,9 +4235,9 @@
       <c r="ES6" s="8"/>
       <c r="ET6" s="8"/>
       <c r="EU6" s="8"/>
-      <c r="EV6" s="9"/>
+      <c r="EV6" s="8"/>
       <c r="EW6" s="9"/>
-      <c r="EX6" s="8"/>
+      <c r="EX6" s="9"/>
       <c r="EY6" s="8"/>
       <c r="EZ6" s="8"/>
       <c r="FA6" s="8"/>
@@ -4279,7 +4272,7 @@
       <c r="GD6" s="8"/>
       <c r="GE6" s="8"/>
       <c r="GF6" s="8"/>
-      <c r="GL6" s="10"/>
+      <c r="GG6" s="8"/>
       <c r="GM6" s="10"/>
       <c r="GN6" s="10"/>
       <c r="GO6" s="10"/>
@@ -4304,122 +4297,122 @@
       <c r="HH6" s="10"/>
       <c r="HI6" s="10"/>
       <c r="HJ6" s="10"/>
-      <c r="HK6" s="10">
-        <v>7.8</v>
-      </c>
+      <c r="HK6" s="10"/>
       <c r="HL6" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="HM6" s="10">
         <v>1700</v>
       </c>
-      <c r="HM6" s="10">
+      <c r="HN6" s="10">
         <v>540</v>
       </c>
-      <c r="HN6" s="10">
-        <v>2</v>
-      </c>
       <c r="HO6" s="10">
+        <v>2</v>
+      </c>
+      <c r="HP6" s="10">
         <v>130</v>
       </c>
-      <c r="HP6" s="10">
-        <v>49</v>
-      </c>
       <c r="HQ6" s="10">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="HR6" s="10">
+        <v>23</v>
+      </c>
+      <c r="HS6" s="10">
         <v>17</v>
       </c>
-      <c r="HS6" s="10">
-        <v>2</v>
-      </c>
       <c r="HT6" s="10">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="HU6" s="10">
-        <v>7.8</v>
+        <v>33</v>
       </c>
       <c r="HV6" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="HW6" s="10">
         <v>79</v>
       </c>
-      <c r="HW6" s="10">
-        <v>4.5</v>
-      </c>
       <c r="HX6" s="10">
-        <v>23</v>
+        <v>4.5</v>
       </c>
       <c r="HY6" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="HZ6" s="10">
+        <v>33</v>
+      </c>
+      <c r="IA6" s="10">
         <v>11</v>
       </c>
-      <c r="IA6" s="10"/>
-      <c r="IB6" s="10">
-        <v>7.8</v>
-      </c>
+      <c r="IB6" s="10"/>
       <c r="IC6" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="ID6" s="10">
         <v>110</v>
       </c>
-      <c r="ID6" s="10">
-        <v>49</v>
-      </c>
       <c r="IE6" s="10">
         <v>49</v>
       </c>
       <c r="IF6" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="IG6" s="10">
+        <v>13</v>
+      </c>
+      <c r="IH6" s="10">
         <v>79</v>
       </c>
-      <c r="IH6" s="10">
+      <c r="II6" s="10">
         <v>220</v>
       </c>
-      <c r="II6" s="10">
+      <c r="IJ6" s="10">
         <v>540</v>
       </c>
-      <c r="IJ6" s="10">
-        <v>49</v>
-      </c>
       <c r="IK6" s="10">
+        <v>49</v>
+      </c>
+      <c r="IL6" s="10">
         <v>79</v>
       </c>
-      <c r="IL6" s="10">
-        <v>49</v>
-      </c>
       <c r="IM6" s="10">
         <v>49</v>
       </c>
       <c r="IN6" s="10">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="IO6" s="10">
+        <v>33</v>
+      </c>
+      <c r="IP6" s="10">
         <v>14</v>
       </c>
-      <c r="IP6" s="10">
-        <v>7.8</v>
-      </c>
       <c r="IQ6" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="IR6" s="10"/>
-      <c r="IS6" s="10">
-        <v>49</v>
-      </c>
+        <v>7.8</v>
+      </c>
+      <c r="IR6" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="IS6" s="10"/>
       <c r="IT6" s="10">
-        <v>4.5</v>
+        <v>49</v>
       </c>
       <c r="IU6" s="10">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="IV6" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="IW6" s="10">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+    <row r="7" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="7">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -4462,10 +4455,10 @@
       <c r="AP7" s="8"/>
       <c r="AQ7" s="8"/>
       <c r="AR7" s="8"/>
-      <c r="AS7" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="AT7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8">
+        <v>4.5</v>
+      </c>
       <c r="AU7" s="8"/>
       <c r="AV7" s="8"/>
       <c r="AW7" s="8"/>
@@ -4571,9 +4564,9 @@
       <c r="ES7" s="8"/>
       <c r="ET7" s="8"/>
       <c r="EU7" s="8"/>
-      <c r="EV7" s="9"/>
+      <c r="EV7" s="8"/>
       <c r="EW7" s="9"/>
-      <c r="EX7" s="8"/>
+      <c r="EX7" s="9"/>
       <c r="EY7" s="8"/>
       <c r="EZ7" s="8"/>
       <c r="FA7" s="8"/>
@@ -4608,7 +4601,7 @@
       <c r="GD7" s="8"/>
       <c r="GE7" s="8"/>
       <c r="GF7" s="8"/>
-      <c r="GL7" s="10"/>
+      <c r="GG7" s="8"/>
       <c r="GM7" s="10"/>
       <c r="GN7" s="10"/>
       <c r="GO7" s="10"/>
@@ -4633,118 +4626,118 @@
       <c r="HH7" s="10"/>
       <c r="HI7" s="10"/>
       <c r="HJ7" s="10"/>
-      <c r="HK7" s="10">
-        <v>2</v>
-      </c>
+      <c r="HK7" s="10"/>
       <c r="HL7" s="10">
+        <v>2</v>
+      </c>
+      <c r="HM7" s="10">
         <v>1700</v>
       </c>
-      <c r="HM7" s="10">
+      <c r="HN7" s="10">
         <v>240</v>
       </c>
-      <c r="HN7" s="10">
-        <v>7.8</v>
-      </c>
       <c r="HO7" s="10">
-        <v>49</v>
+        <v>7.8</v>
       </c>
       <c r="HP7" s="10">
+        <v>49</v>
+      </c>
+      <c r="HQ7" s="10">
         <v>130</v>
       </c>
-      <c r="HQ7" s="10">
-        <v>49</v>
-      </c>
       <c r="HR7" s="10">
+        <v>49</v>
+      </c>
+      <c r="HS7" s="10">
         <v>79</v>
       </c>
-      <c r="HS7" s="10">
-        <v>2</v>
-      </c>
       <c r="HT7" s="10">
+        <v>2</v>
+      </c>
+      <c r="HU7" s="10">
         <v>11</v>
       </c>
-      <c r="HU7" s="10">
-        <v>7.8</v>
-      </c>
       <c r="HV7" s="10">
         <v>7.8</v>
       </c>
       <c r="HW7" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="HX7" s="10">
         <v>4</v>
       </c>
-      <c r="HX7" s="10"/>
-      <c r="HY7" s="10">
-        <v>13</v>
-      </c>
+      <c r="HY7" s="10"/>
       <c r="HZ7" s="10">
+        <v>13</v>
+      </c>
+      <c r="IA7" s="10">
         <v>17</v>
       </c>
-      <c r="IA7" s="10"/>
       <c r="IB7" s="10"/>
-      <c r="IC7" s="10">
+      <c r="IC7" s="10"/>
+      <c r="ID7" s="10">
         <v>130</v>
       </c>
-      <c r="ID7" s="10">
-        <v>33</v>
-      </c>
       <c r="IE7" s="10">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="IF7" s="10">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="IG7" s="10">
+        <v>33</v>
+      </c>
+      <c r="IH7" s="10">
         <v>70</v>
       </c>
-      <c r="IH7" s="10">
+      <c r="II7" s="10">
         <v>180</v>
       </c>
-      <c r="II7" s="10">
+      <c r="IJ7" s="10">
         <v>1600</v>
       </c>
-      <c r="IJ7" s="10">
-        <v>49</v>
-      </c>
       <c r="IK7" s="10">
+        <v>49</v>
+      </c>
+      <c r="IL7" s="10">
         <v>350</v>
       </c>
-      <c r="IL7" s="10">
-        <v>23</v>
-      </c>
       <c r="IM7" s="10">
+        <v>23</v>
+      </c>
+      <c r="IN7" s="10">
         <v>70</v>
       </c>
-      <c r="IN7" s="10">
-        <v>13</v>
-      </c>
       <c r="IO7" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="IP7" s="10">
-        <v>4.5</v>
+        <v>23</v>
       </c>
       <c r="IQ7" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="IR7" s="10">
         <v>11</v>
       </c>
-      <c r="IR7" s="10"/>
-      <c r="IS7" s="10">
-        <v>23</v>
-      </c>
+      <c r="IS7" s="10"/>
       <c r="IT7" s="10">
+        <v>23</v>
+      </c>
+      <c r="IU7" s="10">
         <v>14</v>
       </c>
-      <c r="IU7" s="10">
+      <c r="IV7" s="10">
         <v>4</v>
       </c>
-      <c r="IV7" s="10">
+      <c r="IW7" s="10">
         <v>7.8</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+    <row r="8" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -4754,10 +4747,10 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8">
-        <v>2</v>
-      </c>
-      <c r="M8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8">
+        <v>2</v>
+      </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -4789,10 +4782,10 @@
       <c r="AP8" s="8"/>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="8"/>
-      <c r="AS8" s="8">
-        <v>2</v>
-      </c>
-      <c r="AT8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8">
+        <v>2</v>
+      </c>
       <c r="AU8" s="8"/>
       <c r="AV8" s="8"/>
       <c r="AW8" s="8"/>
@@ -4827,10 +4820,10 @@
       <c r="BZ8" s="8"/>
       <c r="CA8" s="8"/>
       <c r="CB8" s="8"/>
-      <c r="CC8" s="8">
+      <c r="CC8" s="8"/>
+      <c r="CD8" s="8">
         <v>540</v>
       </c>
-      <c r="CD8" s="8"/>
       <c r="CE8" s="8"/>
       <c r="CF8" s="8"/>
       <c r="CG8" s="8"/>
@@ -4847,10 +4840,10 @@
       <c r="CR8" s="8"/>
       <c r="CS8" s="8"/>
       <c r="CT8" s="8"/>
-      <c r="CU8" s="8">
+      <c r="CU8" s="8"/>
+      <c r="CV8" s="8">
         <v>350</v>
       </c>
-      <c r="CV8" s="8"/>
       <c r="CW8" s="8"/>
       <c r="CX8" s="8"/>
       <c r="CY8" s="8"/>
@@ -4902,9 +4895,9 @@
       <c r="ES8" s="8"/>
       <c r="ET8" s="8"/>
       <c r="EU8" s="8"/>
-      <c r="EV8" s="9"/>
+      <c r="EV8" s="8"/>
       <c r="EW8" s="9"/>
-      <c r="EX8" s="8"/>
+      <c r="EX8" s="9"/>
       <c r="EY8" s="8"/>
       <c r="EZ8" s="8"/>
       <c r="FA8" s="8"/>
@@ -4939,7 +4932,7 @@
       <c r="GD8" s="8"/>
       <c r="GE8" s="8"/>
       <c r="GF8" s="8"/>
-      <c r="GL8" s="10"/>
+      <c r="GG8" s="8"/>
       <c r="GM8" s="10"/>
       <c r="GN8" s="10"/>
       <c r="GO8" s="10"/>
@@ -4964,618 +4957,618 @@
       <c r="HH8" s="10"/>
       <c r="HI8" s="10"/>
       <c r="HJ8" s="10"/>
-      <c r="HK8" s="10">
+      <c r="HK8" s="10"/>
+      <c r="HL8" s="10">
         <v>4</v>
       </c>
-      <c r="HL8" s="10">
+      <c r="HM8" s="10">
         <v>540</v>
       </c>
-      <c r="HM8" s="10">
+      <c r="HN8" s="10">
         <v>240</v>
       </c>
-      <c r="HN8" s="10">
+      <c r="HO8" s="10">
         <v>14</v>
       </c>
-      <c r="HO8" s="10">
+      <c r="HP8" s="10">
         <v>130</v>
       </c>
-      <c r="HP8" s="10">
-        <v>23</v>
-      </c>
       <c r="HQ8" s="10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="HR8" s="10">
         <v>17</v>
       </c>
       <c r="HS8" s="10">
+        <v>17</v>
+      </c>
+      <c r="HT8" s="10">
         <v>6.8</v>
       </c>
-      <c r="HT8" s="10">
-        <v>23</v>
-      </c>
       <c r="HU8" s="10">
-        <v>4.5</v>
+        <v>23</v>
       </c>
       <c r="HV8" s="10">
-        <v>49</v>
+        <v>4.5</v>
       </c>
       <c r="HW8" s="10">
+        <v>49</v>
+      </c>
+      <c r="HX8" s="10">
         <v>11</v>
       </c>
-      <c r="HX8" s="10"/>
-      <c r="HY8" s="10">
+      <c r="HY8" s="10"/>
+      <c r="HZ8" s="10">
         <v>170</v>
       </c>
-      <c r="HZ8" s="10">
+      <c r="IA8" s="10">
         <v>17</v>
       </c>
-      <c r="IA8" s="10"/>
-      <c r="IB8" s="10">
-        <v>33</v>
-      </c>
+      <c r="IB8" s="10"/>
       <c r="IC8" s="10">
+        <v>33</v>
+      </c>
+      <c r="ID8" s="10">
         <v>70</v>
       </c>
-      <c r="ID8" s="10">
+      <c r="IE8" s="10">
         <v>32</v>
       </c>
-      <c r="IE8" s="10">
-        <v>33</v>
-      </c>
       <c r="IF8" s="10">
         <v>33</v>
       </c>
       <c r="IG8" s="10">
+        <v>33</v>
+      </c>
+      <c r="IH8" s="10">
         <v>130</v>
-      </c>
-      <c r="IH8" s="10">
-        <v>170</v>
       </c>
       <c r="II8" s="10">
         <v>170</v>
       </c>
       <c r="IJ8" s="10">
+        <v>170</v>
+      </c>
+      <c r="IK8" s="10">
         <v>79</v>
       </c>
-      <c r="IK8" s="10">
+      <c r="IL8" s="10">
         <v>220</v>
       </c>
-      <c r="IL8" s="10">
+      <c r="IM8" s="10">
         <v>79</v>
       </c>
-      <c r="IM8" s="10">
-        <v>33</v>
-      </c>
       <c r="IN8" s="10">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="IO8" s="10">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="IP8" s="10">
+        <v>49</v>
+      </c>
+      <c r="IQ8" s="10">
         <v>17</v>
       </c>
-      <c r="IQ8" s="10">
+      <c r="IR8" s="10">
         <v>21</v>
       </c>
-      <c r="IR8" s="10"/>
-      <c r="IS8" s="10">
+      <c r="IS8" s="10"/>
+      <c r="IT8" s="10">
         <v>27</v>
       </c>
-      <c r="IT8" s="10">
-        <v>33</v>
-      </c>
       <c r="IU8" s="10">
-        <v>7.8</v>
+        <v>33</v>
       </c>
       <c r="IV8" s="10">
         <v>7.8</v>
       </c>
+      <c r="IW8" s="10">
+        <v>7.8</v>
+      </c>
     </row>
-    <row r="9" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+    <row r="9" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="7">
         <v>17</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8">
-        <v>49</v>
-      </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="8">
+        <v>49</v>
+      </c>
+      <c r="E9" s="8">
         <v>11</v>
       </c>
-      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8">
-        <v>33</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8">
-        <v>33</v>
-      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
+        <v>33</v>
+      </c>
+      <c r="J9" s="8"/>
       <c r="K9" s="8">
+        <v>33</v>
+      </c>
+      <c r="L9" s="8">
         <v>79</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8">
+      <c r="M9" s="8"/>
+      <c r="N9" s="8">
         <v>17</v>
       </c>
-      <c r="N9" s="8">
-        <v>4.5</v>
-      </c>
       <c r="O9" s="8">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="P9" s="8">
-        <v>7.8</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="R9" s="8">
         <v>1.7</v>
       </c>
-      <c r="R9" s="8">
+      <c r="S9" s="8">
         <v>11</v>
       </c>
-      <c r="S9" s="8">
-        <v>13</v>
-      </c>
       <c r="T9" s="8">
+        <v>13</v>
+      </c>
+      <c r="U9" s="8">
         <v>21</v>
       </c>
-      <c r="U9" s="8">
-        <v>7.8</v>
-      </c>
       <c r="V9" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="W9" s="8">
         <v>14</v>
       </c>
-      <c r="W9" s="8">
+      <c r="X9" s="8">
         <v>17</v>
       </c>
-      <c r="X9" s="8">
-        <v>4.5</v>
-      </c>
       <c r="Y9" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="Z9" s="8">
         <v>6.8</v>
       </c>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8">
-        <v>23</v>
-      </c>
+      <c r="AA9" s="8"/>
       <c r="AB9" s="8">
-        <v>6.8</v>
+        <v>23</v>
       </c>
       <c r="AC9" s="8">
         <v>6.8</v>
       </c>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8">
-        <v>4.5</v>
-      </c>
+      <c r="AD9" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="AE9" s="8"/>
       <c r="AF9" s="8">
         <v>4.5</v>
       </c>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8">
-        <v>13</v>
-      </c>
+      <c r="AG9" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AH9" s="8"/>
       <c r="AI9" s="8">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="AJ9" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="AK9" s="8">
         <v>21</v>
       </c>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8">
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8">
         <v>540</v>
       </c>
-      <c r="AM9" s="8">
+      <c r="AN9" s="8">
         <v>11</v>
       </c>
-      <c r="AN9" s="8">
+      <c r="AO9" s="8">
         <v>130</v>
       </c>
-      <c r="AO9" s="8">
-        <v>49</v>
-      </c>
       <c r="AP9" s="8">
+        <v>49</v>
+      </c>
+      <c r="AQ9" s="8">
         <v>17</v>
       </c>
-      <c r="AQ9" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="AR9" s="8"/>
+      <c r="AR9" s="8">
+        <v>4.5</v>
+      </c>
       <c r="AS9" s="8"/>
-      <c r="AT9" s="8">
-        <v>4.5</v>
-      </c>
+      <c r="AT9" s="8"/>
       <c r="AU9" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AV9" s="8">
         <v>6.8</v>
       </c>
-      <c r="AV9" s="8">
+      <c r="AW9" s="8">
         <v>110</v>
       </c>
-      <c r="AW9" s="8">
+      <c r="AX9" s="8">
         <v>11</v>
       </c>
-      <c r="AX9" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="8">
-        <v>33</v>
-      </c>
+      <c r="AY9" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AZ9" s="8"/>
       <c r="BA9" s="8">
-        <v>7.8</v>
+        <v>33</v>
       </c>
       <c r="BB9" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="BC9" s="8">
         <v>22</v>
       </c>
-      <c r="BC9" s="8"/>
       <c r="BD9" s="8"/>
-      <c r="BE9" s="8">
-        <v>2</v>
-      </c>
+      <c r="BE9" s="8"/>
       <c r="BF9" s="8">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="BG9" s="8">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="BH9" s="8">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="BI9" s="8">
-        <v>7.8</v>
+        <v>49</v>
       </c>
       <c r="BJ9" s="8">
-        <v>23</v>
+        <v>7.8</v>
       </c>
       <c r="BK9" s="8">
+        <v>23</v>
+      </c>
+      <c r="BL9" s="8">
         <v>350</v>
       </c>
-      <c r="BL9" s="8">
-        <v>2</v>
-      </c>
       <c r="BM9" s="8">
+        <v>2</v>
+      </c>
+      <c r="BN9" s="8">
         <v>240</v>
       </c>
-      <c r="BN9" s="8">
+      <c r="BO9" s="8">
         <v>17</v>
       </c>
-      <c r="BO9" s="8">
-        <v>33</v>
-      </c>
       <c r="BP9" s="8">
+        <v>33</v>
+      </c>
+      <c r="BQ9" s="8">
         <v>11</v>
       </c>
-      <c r="BQ9" s="8">
+      <c r="BR9" s="8">
         <v>6.8</v>
       </c>
-      <c r="BR9" s="8">
-        <v>13</v>
-      </c>
       <c r="BS9" s="8">
+        <v>13</v>
+      </c>
+      <c r="BT9" s="8">
         <v>46</v>
       </c>
-      <c r="BT9" s="8">
+      <c r="BU9" s="8">
         <v>22</v>
       </c>
-      <c r="BU9" s="8">
+      <c r="BV9" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="BV9" s="8">
-        <v>7.8</v>
-      </c>
       <c r="BW9" s="8">
         <v>7.8</v>
       </c>
-      <c r="BX9" s="8"/>
+      <c r="BX9" s="8">
+        <v>7.8</v>
+      </c>
       <c r="BY9" s="8"/>
-      <c r="BZ9" s="8">
-        <v>2</v>
-      </c>
+      <c r="BZ9" s="8"/>
       <c r="CA9" s="8">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="CB9" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="CC9" s="8"/>
-      <c r="CD9" s="8">
-        <v>4.5</v>
-      </c>
+        <v>7.8</v>
+      </c>
+      <c r="CC9" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="CD9" s="8"/>
       <c r="CE9" s="8">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="CF9" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="CG9" s="8">
         <v>79</v>
       </c>
-      <c r="CG9" s="8">
+      <c r="CH9" s="8">
         <v>22</v>
       </c>
-      <c r="CH9" s="8">
+      <c r="CI9" s="8">
         <v>240</v>
       </c>
-      <c r="CI9" s="8">
-        <v>49</v>
-      </c>
       <c r="CJ9" s="8">
+        <v>49</v>
+      </c>
+      <c r="CK9" s="8">
         <v>6.8</v>
       </c>
-      <c r="CK9" s="8">
-        <v>49</v>
-      </c>
       <c r="CL9" s="8">
         <v>49</v>
       </c>
       <c r="CM9" s="8">
-        <v>33</v>
-      </c>
-      <c r="CN9" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="CN9" s="8">
+        <v>33</v>
+      </c>
       <c r="CO9" s="8"/>
-      <c r="CP9" s="8">
+      <c r="CP9" s="8"/>
+      <c r="CQ9" s="8">
         <v>350</v>
       </c>
-      <c r="CQ9" s="8">
-        <v>23</v>
-      </c>
       <c r="CR9" s="8">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="CS9" s="8">
+        <v>33</v>
+      </c>
+      <c r="CT9" s="8">
         <v>22</v>
       </c>
-      <c r="CT9" s="8">
+      <c r="CU9" s="8">
         <v>11</v>
       </c>
-      <c r="CU9" s="8"/>
-      <c r="CV9" s="8">
+      <c r="CV9" s="8"/>
+      <c r="CW9" s="8">
         <v>14</v>
       </c>
-      <c r="CW9" s="8"/>
-      <c r="CX9" s="8">
-        <v>7.8</v>
-      </c>
+      <c r="CX9" s="8"/>
       <c r="CY9" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="CZ9" s="8">
         <v>130</v>
       </c>
-      <c r="CZ9" s="8">
-        <v>49</v>
-      </c>
       <c r="DA9" s="8">
+        <v>49</v>
+      </c>
+      <c r="DB9" s="8">
         <v>6.8</v>
       </c>
-      <c r="DB9" s="8"/>
       <c r="DC9" s="8"/>
-      <c r="DD9" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="DE9" s="8"/>
+      <c r="DD9" s="8"/>
+      <c r="DE9" s="8">
+        <v>4.5</v>
+      </c>
       <c r="DF9" s="8"/>
-      <c r="DG9" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="DH9" s="8"/>
-      <c r="DI9" s="8">
-        <v>2</v>
-      </c>
+      <c r="DG9" s="8"/>
+      <c r="DH9" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="DI9" s="8"/>
       <c r="DJ9" s="8">
+        <v>2</v>
+      </c>
+      <c r="DK9" s="8">
         <v>110</v>
       </c>
-      <c r="DK9" s="8"/>
-      <c r="DL9" s="8">
+      <c r="DL9" s="8"/>
+      <c r="DM9" s="8">
         <v>130</v>
       </c>
-      <c r="DM9" s="8"/>
       <c r="DN9" s="8"/>
-      <c r="DO9" s="8">
-        <v>7.8</v>
-      </c>
+      <c r="DO9" s="8"/>
       <c r="DP9" s="8">
-        <v>23</v>
+        <v>7.8</v>
       </c>
       <c r="DQ9" s="8">
-        <v>7.8</v>
+        <v>23</v>
       </c>
       <c r="DR9" s="8">
-        <v>33</v>
+        <v>7.8</v>
       </c>
       <c r="DS9" s="8">
-        <v>7.8</v>
+        <v>33</v>
       </c>
       <c r="DT9" s="8">
-        <v>49</v>
+        <v>7.8</v>
       </c>
       <c r="DU9" s="8">
         <v>49</v>
       </c>
-      <c r="DV9" s="8"/>
+      <c r="DV9" s="8">
+        <v>49</v>
+      </c>
       <c r="DW9" s="8"/>
-      <c r="DX9" s="8">
-        <v>2</v>
-      </c>
+      <c r="DX9" s="8"/>
       <c r="DY9" s="8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="DZ9" s="8">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="EA9" s="8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="EB9" s="8">
-        <v>7.8</v>
+        <v>23</v>
       </c>
       <c r="EC9" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="ED9" s="8">
         <v>130</v>
       </c>
-      <c r="ED9" s="8">
+      <c r="EE9" s="8">
         <v>110</v>
       </c>
-      <c r="EE9" s="8">
-        <v>13</v>
-      </c>
-      <c r="EF9" s="8"/>
-      <c r="EG9" s="8">
+      <c r="EF9" s="8">
+        <v>13</v>
+      </c>
+      <c r="EG9" s="8"/>
+      <c r="EH9" s="8">
         <v>350</v>
       </c>
-      <c r="EH9" s="8">
-        <v>33</v>
-      </c>
-      <c r="EI9" s="8"/>
+      <c r="EI9" s="8">
+        <v>33</v>
+      </c>
       <c r="EJ9" s="8"/>
       <c r="EK9" s="8"/>
-      <c r="EL9" s="8">
+      <c r="EL9" s="8"/>
+      <c r="EM9" s="8">
         <v>130</v>
       </c>
-      <c r="EM9" s="8">
-        <v>4.5</v>
-      </c>
       <c r="EN9" s="8">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="EO9" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="EP9" s="8">
         <v>11</v>
       </c>
-      <c r="EP9" s="8"/>
       <c r="EQ9" s="8"/>
       <c r="ER9" s="8"/>
       <c r="ES9" s="8"/>
-      <c r="ET9" s="8">
-        <v>2</v>
-      </c>
-      <c r="EU9" s="8"/>
-      <c r="EV9" s="9"/>
+      <c r="ET9" s="8"/>
+      <c r="EU9" s="8">
+        <v>2</v>
+      </c>
+      <c r="EV9" s="8"/>
       <c r="EW9" s="9"/>
-      <c r="EX9" s="8"/>
-      <c r="EY9" s="8">
-        <v>7.8</v>
-      </c>
+      <c r="EX9" s="9"/>
+      <c r="EY9" s="8"/>
       <c r="EZ9" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="FA9" s="8">
         <v>17</v>
       </c>
-      <c r="FA9" s="8"/>
       <c r="FB9" s="8"/>
-      <c r="FC9" s="8">
-        <v>49</v>
-      </c>
+      <c r="FC9" s="8"/>
       <c r="FD9" s="8">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="FE9" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="FF9" s="8"/>
-      <c r="FG9" s="8">
-        <v>33</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="FF9" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="FG9" s="8"/>
       <c r="FH9" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="FI9" s="8"/>
-      <c r="FJ9" s="8">
+        <v>33</v>
+      </c>
+      <c r="FI9" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="FJ9" s="8"/>
+      <c r="FK9" s="8">
         <v>70</v>
       </c>
-      <c r="FK9" s="8">
-        <v>7.8</v>
-      </c>
       <c r="FL9" s="8">
-        <v>49</v>
+        <v>7.8</v>
       </c>
       <c r="FM9" s="8">
-        <v>23</v>
-      </c>
-      <c r="FN9" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="FN9" s="8">
+        <v>23</v>
+      </c>
       <c r="FO9" s="8"/>
-      <c r="FP9" s="8">
-        <v>33</v>
-      </c>
-      <c r="FQ9" s="8"/>
-      <c r="FR9" s="8">
+      <c r="FP9" s="8"/>
+      <c r="FQ9" s="8">
+        <v>33</v>
+      </c>
+      <c r="FR9" s="8"/>
+      <c r="FS9" s="8">
         <v>11</v>
       </c>
-      <c r="FS9" s="8"/>
-      <c r="FT9" s="8">
-        <v>13</v>
-      </c>
-      <c r="FU9" s="8"/>
+      <c r="FT9" s="8"/>
+      <c r="FU9" s="8">
+        <v>13</v>
+      </c>
       <c r="FV9" s="8"/>
       <c r="FW9" s="8"/>
       <c r="FX9" s="8"/>
-      <c r="FY9" s="8">
+      <c r="FY9" s="8"/>
+      <c r="FZ9" s="8">
         <v>17</v>
       </c>
-      <c r="FZ9" s="8">
-        <v>33</v>
-      </c>
-      <c r="GA9" s="8"/>
+      <c r="GA9" s="8">
+        <v>33</v>
+      </c>
       <c r="GB9" s="8"/>
       <c r="GC9" s="8"/>
-      <c r="GD9" s="8">
+      <c r="GD9" s="8"/>
+      <c r="GE9" s="8">
         <v>17</v>
       </c>
-      <c r="GE9" s="8"/>
-      <c r="GF9" s="8">
-        <v>33</v>
-      </c>
+      <c r="GF9" s="8"/>
       <c r="GG9" s="8">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="GH9" s="8">
+        <v>2</v>
+      </c>
+      <c r="GI9" s="8">
         <v>22</v>
       </c>
-      <c r="GI9" s="10">
-        <v>7.8</v>
-      </c>
       <c r="GJ9" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="GK9" s="10"/>
-      <c r="GL9" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="GK9" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="GL9" s="10"/>
+      <c r="GM9" s="10">
         <v>350</v>
       </c>
-      <c r="GM9" s="10">
-        <v>33</v>
-      </c>
       <c r="GN9" s="10">
+        <v>33</v>
+      </c>
+      <c r="GO9" s="10">
         <v>17</v>
       </c>
-      <c r="GO9" s="10"/>
-      <c r="GP9" s="10">
+      <c r="GP9" s="10"/>
+      <c r="GQ9" s="10">
         <v>14</v>
       </c>
-      <c r="GQ9" s="10"/>
       <c r="GR9" s="10"/>
-      <c r="GS9" s="10">
+      <c r="GS9" s="10"/>
+      <c r="GT9" s="10">
         <v>240</v>
       </c>
-      <c r="GT9" s="10">
+      <c r="GU9" s="10">
         <v>11</v>
       </c>
-      <c r="GU9" s="10"/>
-      <c r="GV9" s="10">
+      <c r="GV9" s="10"/>
+      <c r="GW9" s="10">
         <v>350</v>
-      </c>
-      <c r="GW9" s="10">
-        <v>170</v>
       </c>
       <c r="GX9" s="10">
         <v>170</v>
       </c>
       <c r="GY9" s="10">
+        <v>170</v>
+      </c>
+      <c r="GZ9" s="10">
         <v>27</v>
       </c>
-      <c r="GZ9" s="10">
-        <v>7.8</v>
-      </c>
-      <c r="HA9" s="10"/>
-      <c r="HB9" s="10">
+      <c r="HA9" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="HB9" s="10"/>
+      <c r="HC9" s="10">
         <v>110</v>
       </c>
-      <c r="HC9" s="10">
+      <c r="HD9" s="10">
         <v>11</v>
       </c>
-      <c r="HD9" s="10"/>
       <c r="HE9" s="10"/>
       <c r="HF9" s="10"/>
       <c r="HG9" s="10"/>
@@ -5584,29 +5577,29 @@
       <c r="HJ9" s="10"/>
       <c r="HK9" s="10"/>
       <c r="HL9" s="10"/>
-      <c r="HM9" s="10">
+      <c r="HM9" s="10"/>
+      <c r="HN9" s="10">
         <v>130</v>
       </c>
-      <c r="HN9" s="10">
-        <v>13</v>
-      </c>
       <c r="HO9" s="10">
-        <v>23</v>
-      </c>
-      <c r="HP9" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="HP9" s="10">
+        <v>23</v>
+      </c>
       <c r="HQ9" s="10"/>
       <c r="HR9" s="10"/>
       <c r="HS9" s="10"/>
       <c r="HT9" s="10"/>
       <c r="HU9" s="10"/>
-      <c r="HV9" s="10">
-        <v>33</v>
-      </c>
-      <c r="HW9" s="10"/>
-      <c r="HX9" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="HY9" s="10"/>
+      <c r="HV9" s="10"/>
+      <c r="HW9" s="10">
+        <v>33</v>
+      </c>
+      <c r="HX9" s="10"/>
+      <c r="HY9" s="10">
+        <v>4.5</v>
+      </c>
       <c r="HZ9" s="10"/>
       <c r="IA9" s="10"/>
       <c r="IB9" s="10"/>
@@ -5630,12 +5623,12 @@
       <c r="IT9" s="10"/>
       <c r="IU9" s="10"/>
       <c r="IV9" s="10"/>
+      <c r="IW9" s="10"/>
     </row>
-    <row r="10" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
+    <row r="10" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -5736,10 +5729,10 @@
       <c r="CV10" s="8"/>
       <c r="CW10" s="8"/>
       <c r="CX10" s="8"/>
-      <c r="CY10" s="8">
-        <v>49</v>
-      </c>
-      <c r="CZ10" s="8"/>
+      <c r="CY10" s="8"/>
+      <c r="CZ10" s="8">
+        <v>49</v>
+      </c>
       <c r="DA10" s="8"/>
       <c r="DB10" s="8"/>
       <c r="DC10" s="8"/>
@@ -5762,10 +5755,10 @@
       <c r="DT10" s="8"/>
       <c r="DU10" s="8"/>
       <c r="DV10" s="8"/>
-      <c r="DW10" s="8">
-        <v>33</v>
-      </c>
-      <c r="DX10" s="8"/>
+      <c r="DW10" s="8"/>
+      <c r="DX10" s="8">
+        <v>33</v>
+      </c>
       <c r="DY10" s="8"/>
       <c r="DZ10" s="8"/>
       <c r="EA10" s="8"/>
@@ -5789,9 +5782,9 @@
       <c r="ES10" s="8"/>
       <c r="ET10" s="8"/>
       <c r="EU10" s="8"/>
-      <c r="EV10" s="9"/>
+      <c r="EV10" s="8"/>
       <c r="EW10" s="9"/>
-      <c r="EX10" s="8"/>
+      <c r="EX10" s="9"/>
       <c r="EY10" s="8"/>
       <c r="EZ10" s="8"/>
       <c r="FA10" s="8"/>
@@ -5826,15 +5819,15 @@
       <c r="GD10" s="8"/>
       <c r="GE10" s="8"/>
       <c r="GF10" s="8"/>
-      <c r="GI10" s="10"/>
+      <c r="GG10" s="8"/>
       <c r="GJ10" s="10"/>
       <c r="GK10" s="10"/>
       <c r="GL10" s="10"/>
       <c r="GM10" s="10"/>
-      <c r="GN10" s="10">
+      <c r="GN10" s="10"/>
+      <c r="GO10" s="10">
         <v>17</v>
       </c>
-      <c r="GO10" s="10"/>
       <c r="GP10" s="10"/>
       <c r="GQ10" s="10"/>
       <c r="GR10" s="10"/>
@@ -5869,8 +5862,8 @@
       <c r="HU10" s="10"/>
       <c r="HV10" s="10"/>
       <c r="HW10" s="10"/>
-      <c r="HX10" s="4"/>
-      <c r="HY10" s="10"/>
+      <c r="HX10" s="10"/>
+      <c r="HY10" s="4"/>
       <c r="HZ10" s="10"/>
       <c r="IA10" s="10"/>
       <c r="IB10" s="10"/>
@@ -5880,10 +5873,10 @@
       <c r="IF10" s="10"/>
       <c r="IG10" s="10"/>
       <c r="IH10" s="10"/>
-      <c r="IJ10" s="10"/>
+      <c r="II10" s="10"/>
       <c r="IK10" s="10"/>
       <c r="IL10" s="10"/>
-      <c r="IN10" s="3"/>
+      <c r="IM10" s="10"/>
       <c r="IO10" s="3"/>
       <c r="IP10" s="3"/>
       <c r="IQ10" s="3"/>
@@ -5891,13 +5884,13 @@
       <c r="IS10" s="3"/>
       <c r="IT10" s="3"/>
       <c r="IU10" s="3"/>
-      <c r="IV10" s="10"/>
+      <c r="IV10" s="3"/>
+      <c r="IW10" s="10"/>
     </row>
-    <row r="11" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
+    <row r="11" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
         <v>22</v>
       </c>
-      <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -6047,9 +6040,9 @@
       <c r="ES11" s="8"/>
       <c r="ET11" s="8"/>
       <c r="EU11" s="8"/>
-      <c r="EV11" s="9"/>
+      <c r="EV11" s="8"/>
       <c r="EW11" s="9"/>
-      <c r="EX11" s="8"/>
+      <c r="EX11" s="9"/>
       <c r="EY11" s="8"/>
       <c r="EZ11" s="8"/>
       <c r="FA11" s="8"/>
@@ -6084,7 +6077,7 @@
       <c r="GD11" s="8"/>
       <c r="GE11" s="8"/>
       <c r="GF11" s="8"/>
-      <c r="GI11" s="10"/>
+      <c r="GG11" s="8"/>
       <c r="GJ11" s="10"/>
       <c r="GK11" s="10"/>
       <c r="GL11" s="10"/>
@@ -6125,8 +6118,8 @@
       <c r="HU11" s="10"/>
       <c r="HV11" s="10"/>
       <c r="HW11" s="10"/>
-      <c r="HX11" s="4"/>
-      <c r="HY11" s="10"/>
+      <c r="HX11" s="10"/>
+      <c r="HY11" s="4"/>
       <c r="HZ11" s="10"/>
       <c r="IA11" s="10"/>
       <c r="IB11" s="10"/>
@@ -6136,14 +6129,14 @@
       <c r="IF11" s="10"/>
       <c r="IG11" s="10"/>
       <c r="IH11" s="10"/>
-      <c r="IJ11" s="10"/>
-      <c r="IK11" s="10">
-        <v>2</v>
-      </c>
+      <c r="II11" s="10"/>
+      <c r="IK11" s="10"/>
       <c r="IL11" s="10">
-        <v>7.8</v>
-      </c>
-      <c r="IM11" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="IM11" s="10">
+        <v>7.8</v>
+      </c>
       <c r="IN11" s="10"/>
       <c r="IO11" s="10"/>
       <c r="IP11" s="10"/>
@@ -6153,12 +6146,12 @@
       <c r="IT11" s="10"/>
       <c r="IU11" s="10"/>
       <c r="IV11" s="10"/>
+      <c r="IW11" s="10"/>
     </row>
-    <row r="12" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+    <row r="12" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -6201,10 +6194,10 @@
       <c r="AP12" s="8"/>
       <c r="AQ12" s="8"/>
       <c r="AR12" s="8"/>
-      <c r="AS12" s="8">
-        <v>13</v>
-      </c>
-      <c r="AT12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8">
+        <v>13</v>
+      </c>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8"/>
       <c r="AW12" s="8"/>
@@ -6310,9 +6303,9 @@
       <c r="ES12" s="8"/>
       <c r="ET12" s="8"/>
       <c r="EU12" s="8"/>
-      <c r="EV12" s="9"/>
+      <c r="EV12" s="8"/>
       <c r="EW12" s="9"/>
-      <c r="EX12" s="8"/>
+      <c r="EX12" s="9"/>
       <c r="EY12" s="8"/>
       <c r="EZ12" s="8"/>
       <c r="FA12" s="8"/>
@@ -6347,7 +6340,7 @@
       <c r="GD12" s="8"/>
       <c r="GE12" s="8"/>
       <c r="GF12" s="8"/>
-      <c r="GI12" s="10"/>
+      <c r="GG12" s="8"/>
       <c r="GJ12" s="10"/>
       <c r="GK12" s="10"/>
       <c r="GL12" s="10"/>
@@ -6399,7 +6392,7 @@
       <c r="IF12" s="10"/>
       <c r="IG12" s="10"/>
       <c r="IH12" s="10"/>
-      <c r="IJ12" s="10"/>
+      <c r="II12" s="10"/>
       <c r="IK12" s="10"/>
       <c r="IL12" s="10"/>
       <c r="IM12" s="10"/>
@@ -6412,12 +6405,12 @@
       <c r="IT12" s="10"/>
       <c r="IU12" s="10"/>
       <c r="IV12" s="10"/>
+      <c r="IW12" s="10"/>
     </row>
-    <row r="13" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+    <row r="13" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
         <v>24</v>
       </c>
-      <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -6436,10 +6429,10 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="8">
+      <c r="U13" s="8"/>
+      <c r="V13" s="8">
         <v>22</v>
       </c>
-      <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
@@ -6569,12 +6562,12 @@
       <c r="ES13" s="8"/>
       <c r="ET13" s="8"/>
       <c r="EU13" s="8"/>
-      <c r="EV13" s="9"/>
+      <c r="EV13" s="8"/>
       <c r="EW13" s="9"/>
-      <c r="FI13" s="7">
+      <c r="EX13" s="9"/>
+      <c r="FJ13" s="7">
         <v>95</v>
       </c>
-      <c r="HJ13" s="10"/>
       <c r="HK13" s="10"/>
       <c r="HL13" s="10"/>
       <c r="HM13" s="10"/>
@@ -6599,7 +6592,7 @@
       <c r="IF13" s="10"/>
       <c r="IG13" s="10"/>
       <c r="IH13" s="10"/>
-      <c r="IJ13" s="10"/>
+      <c r="II13" s="10"/>
       <c r="IK13" s="10"/>
       <c r="IL13" s="10"/>
       <c r="IM13" s="10"/>
@@ -6612,12 +6605,12 @@
       <c r="IT13" s="10"/>
       <c r="IU13" s="10"/>
       <c r="IV13" s="10"/>
+      <c r="IW13" s="10"/>
     </row>
-    <row r="14" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
+    <row r="14" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="7">
+        <v>13</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -6660,10 +6653,10 @@
       <c r="AP14" s="8"/>
       <c r="AQ14" s="8"/>
       <c r="AR14" s="8"/>
-      <c r="AS14" s="8">
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8">
         <v>1.7</v>
       </c>
-      <c r="AT14" s="8"/>
       <c r="AU14" s="8"/>
       <c r="AV14" s="8"/>
       <c r="AW14" s="8"/>
@@ -6769,9 +6762,9 @@
       <c r="ES14" s="8"/>
       <c r="ET14" s="8"/>
       <c r="EU14" s="8"/>
-      <c r="EV14" s="9"/>
+      <c r="EV14" s="8"/>
       <c r="EW14" s="9"/>
-      <c r="EX14" s="8"/>
+      <c r="EX14" s="9"/>
       <c r="EY14" s="8"/>
       <c r="EZ14" s="8"/>
       <c r="FA14" s="8"/>
@@ -6806,7 +6799,7 @@
       <c r="GD14" s="8"/>
       <c r="GE14" s="8"/>
       <c r="GF14" s="8"/>
-      <c r="GL14" s="10"/>
+      <c r="GG14" s="8"/>
       <c r="GM14" s="10"/>
       <c r="GN14" s="10"/>
       <c r="GO14" s="10"/>
@@ -6855,7 +6848,7 @@
       <c r="IF14" s="10"/>
       <c r="IG14" s="10"/>
       <c r="IH14" s="10"/>
-      <c r="IK14" s="10"/>
+      <c r="II14" s="10"/>
       <c r="IL14" s="10"/>
       <c r="IM14" s="10"/>
       <c r="IN14" s="10"/>
@@ -6867,12 +6860,12 @@
       <c r="IT14" s="10"/>
       <c r="IU14" s="10"/>
       <c r="IV14" s="10"/>
+      <c r="IW14" s="10"/>
     </row>
-    <row r="15" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+    <row r="15" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="7">
         <v>18</v>
       </c>
-      <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -6925,13 +6918,13 @@
       <c r="AZ15" s="8"/>
       <c r="BA15" s="8"/>
       <c r="BB15" s="8"/>
-      <c r="BC15" s="8">
-        <v>23</v>
-      </c>
+      <c r="BC15" s="8"/>
       <c r="BD15" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="BE15" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="BE15" s="8">
+        <v>4.5</v>
+      </c>
       <c r="BF15" s="8"/>
       <c r="BG15" s="8"/>
       <c r="BH15" s="8"/>
@@ -7026,9 +7019,9 @@
       <c r="ES15" s="8"/>
       <c r="ET15" s="8"/>
       <c r="EU15" s="8"/>
-      <c r="EV15" s="9"/>
+      <c r="EV15" s="8"/>
       <c r="EW15" s="9"/>
-      <c r="EX15" s="8"/>
+      <c r="EX15" s="9"/>
       <c r="EY15" s="8"/>
       <c r="EZ15" s="8"/>
       <c r="FA15" s="8"/>
@@ -7063,7 +7056,7 @@
       <c r="GD15" s="8"/>
       <c r="GE15" s="8"/>
       <c r="GF15" s="8"/>
-      <c r="HJ15" s="10"/>
+      <c r="GG15" s="8"/>
       <c r="HK15" s="10"/>
       <c r="HL15" s="10"/>
       <c r="HM15" s="10"/>
@@ -7088,7 +7081,7 @@
       <c r="IF15" s="10"/>
       <c r="IG15" s="10"/>
       <c r="IH15" s="10"/>
-      <c r="IK15" s="10"/>
+      <c r="II15" s="10"/>
       <c r="IL15" s="10"/>
       <c r="IM15" s="10"/>
       <c r="IN15" s="10"/>
@@ -7100,12 +7093,12 @@
       <c r="IT15" s="10"/>
       <c r="IU15" s="10"/>
       <c r="IV15" s="10"/>
+      <c r="IW15" s="10"/>
     </row>
-    <row r="16" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+    <row r="16" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="7">
         <v>30</v>
       </c>
-      <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -7148,18 +7141,18 @@
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
       <c r="AR16" s="8"/>
-      <c r="AS16" s="8">
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8">
         <v>1.7</v>
       </c>
-      <c r="AT16" s="8"/>
       <c r="AU16" s="8"/>
       <c r="AV16" s="8"/>
       <c r="AW16" s="8"/>
       <c r="AX16" s="8"/>
-      <c r="AY16" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="AZ16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8">
+        <v>4.5</v>
+      </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="8"/>
       <c r="BC16" s="8"/>
@@ -7259,9 +7252,9 @@
       <c r="ES16" s="8"/>
       <c r="ET16" s="8"/>
       <c r="EU16" s="8"/>
-      <c r="EV16" s="9"/>
+      <c r="EV16" s="8"/>
       <c r="EW16" s="9"/>
-      <c r="HJ16" s="10"/>
+      <c r="EX16" s="9"/>
       <c r="HK16" s="10"/>
       <c r="HL16" s="10"/>
       <c r="HM16" s="10"/>
@@ -7286,7 +7279,7 @@
       <c r="IF16" s="10"/>
       <c r="IG16" s="10"/>
       <c r="IH16" s="10"/>
-      <c r="IK16" s="10"/>
+      <c r="II16" s="10"/>
       <c r="IL16" s="10"/>
       <c r="IM16" s="10"/>
       <c r="IN16" s="10"/>
@@ -7298,15 +7291,15 @@
       <c r="IT16" s="10"/>
       <c r="IU16" s="10"/>
       <c r="IV16" s="10"/>
+      <c r="IW16" s="10"/>
     </row>
-    <row r="17" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+    <row r="17" spans="2:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="7">
         <v>30</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -7354,10 +7347,10 @@
       <c r="AV17" s="8"/>
       <c r="AW17" s="8"/>
       <c r="AX17" s="8"/>
-      <c r="AY17" s="8">
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="8">
         <v>11</v>
       </c>
-      <c r="AZ17" s="8"/>
       <c r="BA17" s="8"/>
       <c r="BB17" s="8"/>
       <c r="BC17" s="8"/>
@@ -7457,9 +7450,9 @@
       <c r="ES17" s="8"/>
       <c r="ET17" s="8"/>
       <c r="EU17" s="8"/>
-      <c r="EV17" s="9"/>
+      <c r="EV17" s="8"/>
       <c r="EW17" s="9"/>
-      <c r="HJ17" s="10"/>
+      <c r="EX17" s="9"/>
       <c r="HK17" s="10"/>
       <c r="HL17" s="10"/>
       <c r="HM17" s="10"/>
@@ -7484,7 +7477,7 @@
       <c r="IF17" s="10"/>
       <c r="IG17" s="10"/>
       <c r="IH17" s="10"/>
-      <c r="IK17" s="10"/>
+      <c r="II17" s="10"/>
       <c r="IL17" s="10"/>
       <c r="IM17" s="10"/>
       <c r="IN17" s="10"/>
@@ -7496,15 +7489,15 @@
       <c r="IT17" s="10"/>
       <c r="IU17" s="10"/>
       <c r="IV17" s="10"/>
+      <c r="IW17" s="10"/>
     </row>
-    <row r="18" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+    <row r="18" spans="2:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="7">
         <v>30</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -7552,10 +7545,10 @@
       <c r="AV18" s="8"/>
       <c r="AW18" s="8"/>
       <c r="AX18" s="8"/>
-      <c r="AY18" s="8">
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8">
         <v>6.1</v>
       </c>
-      <c r="AZ18" s="8"/>
       <c r="BA18" s="8"/>
       <c r="BB18" s="8"/>
       <c r="BC18" s="8"/>
@@ -7655,9 +7648,9 @@
       <c r="ES18" s="8"/>
       <c r="ET18" s="8"/>
       <c r="EU18" s="8"/>
-      <c r="EV18" s="9"/>
+      <c r="EV18" s="8"/>
       <c r="EW18" s="9"/>
-      <c r="HJ18" s="10"/>
+      <c r="EX18" s="9"/>
       <c r="HK18" s="10"/>
       <c r="HL18" s="10"/>
       <c r="HM18" s="10"/>
@@ -7682,7 +7675,7 @@
       <c r="IF18" s="10"/>
       <c r="IG18" s="10"/>
       <c r="IH18" s="10"/>
-      <c r="IK18" s="10"/>
+      <c r="II18" s="10"/>
       <c r="IL18" s="10"/>
       <c r="IM18" s="10"/>
       <c r="IN18" s="10"/>
@@ -7694,12 +7687,12 @@
       <c r="IT18" s="10"/>
       <c r="IU18" s="10"/>
       <c r="IV18" s="10"/>
+      <c r="IW18" s="10"/>
     </row>
-    <row r="19" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+    <row r="19" spans="2:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="7">
         <v>35</v>
       </c>
-      <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -7709,10 +7702,10 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8">
-        <v>2</v>
-      </c>
-      <c r="M19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8">
+        <v>2</v>
+      </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -7851,9 +7844,9 @@
       <c r="ES19" s="8"/>
       <c r="ET19" s="8"/>
       <c r="EU19" s="8"/>
-      <c r="EV19" s="9"/>
+      <c r="EV19" s="8"/>
       <c r="EW19" s="9"/>
-      <c r="HJ19" s="10"/>
+      <c r="EX19" s="9"/>
       <c r="HK19" s="10"/>
       <c r="HL19" s="10"/>
       <c r="HM19" s="10"/>
@@ -7861,8 +7854,8 @@
       <c r="HO19" s="10"/>
       <c r="HP19" s="10"/>
       <c r="HQ19" s="10"/>
-      <c r="HR19" s="4"/>
-      <c r="HS19" s="10"/>
+      <c r="HR19" s="10"/>
+      <c r="HS19" s="4"/>
       <c r="HT19" s="10"/>
       <c r="HU19" s="10"/>
       <c r="HV19" s="10"/>
@@ -7878,7 +7871,7 @@
       <c r="IF19" s="10"/>
       <c r="IG19" s="10"/>
       <c r="IH19" s="10"/>
-      <c r="IK19" s="10"/>
+      <c r="II19" s="10"/>
       <c r="IL19" s="10"/>
       <c r="IM19" s="10"/>
       <c r="IN19" s="10"/>
@@ -7890,12 +7883,12 @@
       <c r="IT19" s="10"/>
       <c r="IU19" s="10"/>
       <c r="IV19" s="10"/>
+      <c r="IW19" s="10"/>
     </row>
-    <row r="20" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+    <row r="20" spans="2:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="7">
         <v>36</v>
       </c>
-      <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -7905,10 +7898,10 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="8">
-        <v>23</v>
-      </c>
-      <c r="M20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8">
+        <v>23</v>
+      </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -7939,13 +7932,13 @@
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
       <c r="AQ20" s="8"/>
-      <c r="AR20" s="8">
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8">
         <v>170</v>
       </c>
-      <c r="AS20" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="AT20" s="8"/>
+      <c r="AT20" s="8">
+        <v>7.8</v>
+      </c>
       <c r="AU20" s="8"/>
       <c r="AV20" s="8"/>
       <c r="AW20" s="8"/>
@@ -8051,9 +8044,9 @@
       <c r="ES20" s="8"/>
       <c r="ET20" s="8"/>
       <c r="EU20" s="8"/>
-      <c r="EV20" s="9"/>
+      <c r="EV20" s="8"/>
       <c r="EW20" s="9"/>
-      <c r="HJ20" s="10"/>
+      <c r="EX20" s="9"/>
       <c r="HK20" s="10"/>
       <c r="HL20" s="10"/>
       <c r="HM20" s="10"/>
@@ -8078,7 +8071,7 @@
       <c r="IF20" s="10"/>
       <c r="IG20" s="10"/>
       <c r="IH20" s="10"/>
-      <c r="IK20" s="10"/>
+      <c r="II20" s="10"/>
       <c r="IL20" s="10"/>
       <c r="IM20" s="10"/>
       <c r="IN20" s="10"/>
@@ -8090,12 +8083,12 @@
       <c r="IT20" s="10"/>
       <c r="IU20" s="10"/>
       <c r="IV20" s="10"/>
+      <c r="IW20" s="10"/>
     </row>
-    <row r="21" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+    <row r="21" spans="2:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="7">
         <v>1</v>
       </c>
-      <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -8105,10 +8098,10 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8">
-        <v>13</v>
-      </c>
-      <c r="M21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8">
+        <v>13</v>
+      </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -8247,9 +8240,9 @@
       <c r="ES21" s="8"/>
       <c r="ET21" s="8"/>
       <c r="EU21" s="8"/>
-      <c r="EV21" s="9"/>
+      <c r="EV21" s="8"/>
       <c r="EW21" s="9"/>
-      <c r="HJ21" s="10"/>
+      <c r="EX21" s="9"/>
       <c r="HK21" s="10"/>
       <c r="HL21" s="10"/>
       <c r="HM21" s="10"/>
@@ -8274,7 +8267,7 @@
       <c r="IF21" s="10"/>
       <c r="IG21" s="10"/>
       <c r="IH21" s="10"/>
-      <c r="IK21" s="10"/>
+      <c r="II21" s="10"/>
       <c r="IL21" s="10"/>
       <c r="IM21" s="10"/>
       <c r="IN21" s="10"/>
@@ -8286,19 +8279,19 @@
       <c r="IT21" s="10"/>
       <c r="IU21" s="10"/>
       <c r="IV21" s="10"/>
+      <c r="IW21" s="10"/>
     </row>
-    <row r="22" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="2:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="8">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
         <v>170</v>
       </c>
-      <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -8445,7 +8438,7 @@
       <c r="EU22" s="9"/>
       <c r="EV22" s="9"/>
       <c r="EW22" s="9"/>
-      <c r="HJ22" s="10"/>
+      <c r="EX22" s="9"/>
       <c r="HK22" s="10"/>
       <c r="HL22" s="10"/>
       <c r="HM22" s="10"/>
@@ -8470,7 +8463,7 @@
       <c r="IF22" s="10"/>
       <c r="IG22" s="10"/>
       <c r="IH22" s="10"/>
-      <c r="IK22" s="10"/>
+      <c r="II22" s="10"/>
       <c r="IL22" s="10"/>
       <c r="IM22" s="10"/>
       <c r="IN22" s="10"/>
@@ -8482,12 +8475,12 @@
       <c r="IT22" s="10"/>
       <c r="IU22" s="10"/>
       <c r="IV22" s="10"/>
+      <c r="IW22" s="10"/>
     </row>
-    <row r="23" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+    <row r="23" spans="2:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="9">
         <v>31</v>
       </c>
-      <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -8639,66 +8632,66 @@
       <c r="EU23" s="9"/>
       <c r="EV23" s="9"/>
       <c r="EW23" s="9"/>
-      <c r="HJ23" s="10"/>
-      <c r="HK23" s="10">
+      <c r="EX23" s="9"/>
+      <c r="HK23" s="10"/>
+      <c r="HL23" s="10">
         <v>1.7</v>
       </c>
-      <c r="HL23" s="10">
+      <c r="HM23" s="10">
         <v>130</v>
       </c>
-      <c r="HM23" s="10">
+      <c r="HN23" s="10">
         <v>240</v>
       </c>
-      <c r="HN23" s="10">
-        <v>7.8</v>
-      </c>
       <c r="HO23" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="HP23" s="10">
         <v>9.3000000000000007</v>
       </c>
-      <c r="HP23" s="10">
-        <v>33</v>
-      </c>
-      <c r="HQ23" s="10"/>
-      <c r="HR23" s="10">
-        <v>33</v>
-      </c>
+      <c r="HQ23" s="10">
+        <v>33</v>
+      </c>
+      <c r="HR23" s="10"/>
       <c r="HS23" s="10">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="HT23" s="10">
         <v>4</v>
       </c>
       <c r="HU23" s="10">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="HV23" s="10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="HW23" s="10">
+        <v>2</v>
+      </c>
+      <c r="HX23" s="10">
         <v>11</v>
       </c>
-      <c r="HX23" s="10"/>
-      <c r="HY23" s="10">
-        <v>13</v>
-      </c>
+      <c r="HY23" s="10"/>
       <c r="HZ23" s="10">
+        <v>13</v>
+      </c>
+      <c r="IA23" s="10">
         <v>11</v>
       </c>
-      <c r="IA23" s="10"/>
       <c r="IB23" s="10"/>
-      <c r="IC23" s="10">
+      <c r="IC23" s="10"/>
+      <c r="ID23" s="10">
         <v>110</v>
       </c>
-      <c r="ID23" s="10">
+      <c r="IE23" s="10">
         <v>17</v>
       </c>
-      <c r="IE23" s="10">
-        <v>49</v>
-      </c>
       <c r="IF23" s="10">
-        <v>23</v>
-      </c>
-      <c r="IG23" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="IG23" s="10">
+        <v>23</v>
+      </c>
       <c r="IH23" s="10"/>
       <c r="II23" s="10"/>
       <c r="IJ23" s="10"/>
@@ -8714,15 +8707,15 @@
       <c r="IT23" s="10"/>
       <c r="IU23" s="10"/>
       <c r="IV23" s="10"/>
+      <c r="IW23" s="10"/>
     </row>
-    <row r="24" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
+    <row r="24" spans="2:257" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="9">
         <v>9</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -8873,78 +8866,78 @@
       <c r="EU24" s="9"/>
       <c r="EV24" s="9"/>
       <c r="EW24" s="9"/>
-      <c r="HJ24" s="10"/>
-      <c r="HK24" s="10">
-        <v>4.5</v>
-      </c>
+      <c r="EX24" s="9"/>
+      <c r="HK24" s="10"/>
       <c r="HL24" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="HM24" s="10">
         <v>1600</v>
       </c>
-      <c r="HM24" s="10">
+      <c r="HN24" s="10">
         <v>130</v>
       </c>
-      <c r="HN24" s="10">
+      <c r="HO24" s="10">
         <v>22</v>
       </c>
-      <c r="HO24" s="10">
-        <v>33</v>
-      </c>
       <c r="HP24" s="10">
+        <v>33</v>
+      </c>
+      <c r="HQ24" s="10">
         <v>6.8</v>
       </c>
-      <c r="HQ24" s="10">
-        <v>13</v>
-      </c>
       <c r="HR24" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="HS24" s="10">
-        <v>4.5</v>
+        <v>33</v>
       </c>
       <c r="HT24" s="10">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="HU24" s="10">
+        <v>33</v>
+      </c>
+      <c r="HV24" s="10">
         <v>79</v>
       </c>
-      <c r="HV24" s="10">
+      <c r="HW24" s="10">
         <v>11</v>
       </c>
-      <c r="HW24" s="10">
-        <v>13</v>
-      </c>
-      <c r="HX24" s="10"/>
-      <c r="HY24" s="10">
-        <v>23</v>
-      </c>
+      <c r="HX24" s="10">
+        <v>13</v>
+      </c>
+      <c r="HY24" s="10"/>
       <c r="HZ24" s="10">
+        <v>23</v>
+      </c>
+      <c r="IA24" s="10">
         <v>11</v>
       </c>
-      <c r="IA24" s="10"/>
       <c r="IB24" s="10"/>
-      <c r="IC24" s="10">
-        <v>49</v>
-      </c>
+      <c r="IC24" s="10"/>
       <c r="ID24" s="10">
         <v>49</v>
       </c>
       <c r="IE24" s="10">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="IF24" s="10">
+        <v>23</v>
+      </c>
+      <c r="IG24" s="10">
         <v>17</v>
       </c>
-      <c r="IG24" s="10"/>
       <c r="IH24" s="10"/>
       <c r="II24" s="10"/>
       <c r="IJ24" s="10"/>
       <c r="IK24" s="10"/>
       <c r="IL24" s="10"/>
       <c r="IM24" s="10"/>
-      <c r="IN24" s="10">
-        <v>23</v>
-      </c>
-      <c r="IO24" s="10"/>
+      <c r="IN24" s="10"/>
+      <c r="IO24" s="10">
+        <v>23</v>
+      </c>
       <c r="IP24" s="10"/>
       <c r="IQ24" s="10"/>
       <c r="IR24" s="10"/>
@@ -8952,9 +8945,9 @@
       <c r="IT24" s="10"/>
       <c r="IU24" s="10"/>
       <c r="IV24" s="10"/>
+      <c r="IW24" s="10"/>
     </row>
-    <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
+    <row r="25" spans="2:257" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -9107,9 +9100,9 @@
       <c r="EU25" s="12"/>
       <c r="EV25" s="12"/>
       <c r="EW25" s="12"/>
+      <c r="EX25" s="12"/>
     </row>
-    <row r="26" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+    <row r="26" spans="2:257" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -9262,9 +9255,9 @@
       <c r="EU26" s="12"/>
       <c r="EV26" s="12"/>
       <c r="EW26" s="12"/>
+      <c r="EX26" s="12"/>
     </row>
-    <row r="27" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
+    <row r="27" spans="2:257" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -9417,6 +9410,7 @@
       <c r="EU27" s="12"/>
       <c r="EV27" s="12"/>
       <c r="EW27" s="12"/>
+      <c r="EX27" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
